--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-common-template.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-common-template.xlsx
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-09-11</t>
+    <t>2020-09-22</t>
   </si>
   <si>
     <t>hzero</t>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-common-template.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-common-template.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="98">
   <si>
     <r>
       <rPr>
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-09-22</t>
+    <t>2021-02-02</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2029,6 +2029,12 @@
   </si>
   <si>
     <t>#tenant_id</t>
+  </si>
+  <si>
+    <t>last_update_date</t>
+  </si>
+  <si>
+    <t>last_updated_by</t>
   </si>
   <si>
     <t>hpfm_common_template-8</t>
@@ -2140,6 +2146,12 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>-1</t>
   </si>
   <si>
     <t>hpfm_common_template-9</t>
@@ -3485,7 +3497,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3553,187 +3565,235 @@
       <c r="L7" t="s" s="43">
         <v>61</v>
       </c>
+      <c r="M7" t="s">
+        <v>62</v>
+      </c>
+      <c r="N7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L8" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="M8" t="s">
+        <v>72</v>
+      </c>
+      <c r="N8" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" t="s">
         <v>70</v>
       </c>
-      <c r="F9" t="s">
+      <c r="L9" t="s">
         <v>71</v>
       </c>
-      <c r="G9" t="s">
+      <c r="M9" t="s">
         <v>72</v>
       </c>
-      <c r="H9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="N9" t="s">
         <v>73</v>
-      </c>
-      <c r="J9" t="s">
-        <v>67</v>
-      </c>
-      <c r="K9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L9" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F10" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I10" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L10" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="M10" t="s">
+        <v>72</v>
+      </c>
+      <c r="N10" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F11" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G11" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I11" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="J11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L11" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="M11" t="s">
+        <v>72</v>
+      </c>
+      <c r="N11" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F12" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G12" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I12" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="J12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L12" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="M12" t="s">
+        <v>72</v>
+      </c>
+      <c r="N12" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F13" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G13" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I13" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="J13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L13" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="M13" t="s">
+        <v>72</v>
+      </c>
+      <c r="N13" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F14" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G14" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I14" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="J14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L14" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="M14" t="s">
+        <v>72</v>
+      </c>
+      <c r="N14" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-common-template.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-common-template.xlsx
@@ -21,12 +21,12 @@
     <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
     <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="180">
   <si>
     <r>
       <rPr>
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2021-02-02</t>
+    <t>2021-10-13</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2040,13 +2040,361 @@
     <t>hpfm_common_template-8</t>
   </si>
   <si>
+    <t>HPFM.EVENT_RULE_TEMPLATE</t>
+  </si>
+  <si>
+    <t>事件规则基础模板</t>
+  </si>
+  <si>
+    <t>API_CUSZ</t>
+  </si>
+  <si>
+    <t>package org.hzero.template.event.rule;
+import io.choerodon.core.convertor.ApplicationContextHelper;
+import org.hzero.boot.api.customize.commons.handler.ICustomizeHandler;
+import org.hzero.boot.platform.event.EventScheduler;
+import org.hzero.boot.platform.event.vo.ApiParam;
+import org.hzero.boot.platform.event.vo.EventParam;
+import org.hzero.boot.platform.event.vo.MethodParam;
+import org.hzero.boot.platform.event.vo.WebHookParam;
+import java.util.HashMap;
+import java.util.Map;
+/**
+ * 事件规则处理模板
+ * &lt;p&gt;
+ * 共有四处逻辑需要完善：
+ * 1、org.hzero.template.event.rule.EventRuleHandler.executeAdapter(java.lang.Long)
+ * 2、org.hzero.template.event.rule.EventRuleHandler.getEventCode()
+ * 3、org.hzero.template.event.rule.EventRuleHandler.getEventSchedulerCondition()
+ * 4、org.hzero.template.event.rule.EventRuleHandler.getEventParams()
+ *
+ * @author admin
+ */
+public class EventRuleHandler implements ICustomizeHandler {
+    @Override
+    public Object execute(Object... args) {
+        return this.executeAdapter(${callParameter});
+    }
+    /**
+     * 实际执行的逻辑，该方法主要用于适配参数
+     */
+    private Object executeAdapter(${executeParameter}) {
+        // 获取事件调度器
+        EventScheduler eventScheduler = this.getEventScheduler();
+        // 获取事件编码
+        String eventCode = this.getEventCode(${executeArgList});
+        // 获取事件调度条件对象
+        Map&lt;String, Object&gt; condition = this.getEventSchedulerCondition(${executeArgList});
+        // 获取事件参数
+        EventParam[] eventParams = this.getEventParams(${executeArgList});
+        // 事件调度，如果有返回值，则返回事件调度结果；如果没有返回值，就返回null
+        Object scheduleResult = eventScheduler.scheduler(eventCode, condition, eventParams);
+        // TODO: 请完善实际业务逻辑
+        return null;
+    }
+    /**
+     * 获取事件编码
+     *
+     * @return 事件编码
+     */
+    private String getEventCode(${executeParameter}) {
+        // TODO: 请完善使用的事件编码
+        return null;
+    }
+    /**
+     * 获取事件调用条件对象
+     *
+     * @return 事件调用条件对象
+     */
+    private Map&lt;String, Object&gt; getEventSchedulerCondition(${executeParameter}) {
+        // 条件对象
+        Map&lt;String, Object&gt; condition = new HashMap&lt;&gt;(16);
+        // TODO: 请完善条件对象数据填充
+        // 例： condition.put("age", 100);
+        // 返回条件对象
+        return condition;
+    }
+    /**
+     * 获取事件参数
+     *
+     * @return 事件参数
+     * @see EventParam
+     * @see ApiParam
+     * @see MethodParam
+     * @see WebHookParam
+     */
+    private EventParam[] getEventParams(${executeParameter}) {
+        // TODO: 请完善事件参数的创建逻辑
+        // 目前共有三种事件参数类型：ApiParam、MethodParam、WebHookParam
+        return new EventParam[0];
+    }
+    /**
+     * 获取事件调度器
+     *
+     * @return 事件调度器
+     */
+    private EventScheduler getEventScheduler() {
+        // 使用ApplicationContext获取EventScheduler对象
+        return ApplicationContextHelper.getContext().getBean(EventScheduler.class);
+    }
+}</t>
+  </si>
+  <si>
+    <t>zh_CN</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>2124</t>
+  </si>
+  <si>
+    <t>hpfm_common_template-9</t>
+  </si>
+  <si>
+    <t>HPFM.BASE.JAVA</t>
+  </si>
+  <si>
+    <t>API个性化基础模板(Java)</t>
+  </si>
+  <si>
+    <t>package org.hzero.template.api.cusz;
+import io.choerodon.core.convertor.ApplicationContextHelper;
+import org.hzero.boot.api.customize.commons.handler.ICustomizeHandler;
+/**
+ * API个性化基础模板处理模板
+ * &lt;p&gt;
+ * 共有一处逻辑需要完善：
+ * 1、org.hzero.template.api.cusz.ApiCuszHandler.executeAdapter(java.lang.Long)
+ *
+ * @author admin
+ */
+public class ApiCuszHandler implements ICustomizeHandler {
+    @Override
+    public Object execute(Object... args) {
+        return this.executeAdapter(${callParameter});
+    }
+    /**
+     * 实际执行的逻辑，该方法主要用于适配参数
+     */
+    private Object executeAdapter(${executeParameter}) {
+        // TODO: 请完善实际业务逻辑
+        return null;
+    }
+}</t>
+  </si>
+  <si>
+    <t>hpfm_common_template-10</t>
+  </si>
+  <si>
+    <t>HIAM.EVENT_RULE.CREATION_USER</t>
+  </si>
+  <si>
+    <t>事件规则：创建用户</t>
+  </si>
+  <si>
+    <t>package org.hzero.template.event.rule;
+import io.choerodon.core.convertor.ApplicationContextHelper;
+import org.hzero.boot.api.customize.commons.handler.ICustomizeHandler;
+import org.hzero.boot.platform.event.EventScheduler;
+import org.hzero.boot.platform.event.vo.ApiParam;
+import org.hzero.boot.platform.event.vo.EventParam;
+import org.hzero.boot.platform.event.vo.MethodParam;
+import org.hzero.boot.platform.event.vo.WebHookParam;
+import java.util.HashMap;
+import java.util.Map;
+/**
+ * 事件规则创建用户模板
+ * &lt;p&gt;
+ * 共有三处逻辑需要完善：
+ * 1、org.hzero.template.event.rule.EventRuleHandler.executeAdapter(java.lang.Long)
+ * 2、org.hzero.template.event.rule.EventRuleHandler.getEventSchedulerCondition()
+ * 3、org.hzero.template.event.rule.EventRuleHandler.getEventParams()
+ *
+ * @author admin
+ */
+public class EventRuleCreationUserHandler implements ICustomizeHandler {
+    @Override
+    public Object execute(Object... args) {
+        return this.executeAdapter(${callParameter});
+    }
+    /**
+     * 实际执行的逻辑，该方法主要用于适配参数
+     */
+    private Object executeAdapter(${executeParameter}) {
+        // 获取事件调度器
+        EventScheduler eventScheduler = this.getEventScheduler();
+        // 获取事件编码
+        String eventCode = this.getEventCode(${executeArgList});
+        // 获取事件调度条件对象
+        Map&lt;String, Object&gt; condition = this.getEventSchedulerCondition(${executeArgList});
+        // 获取事件参数
+        EventParam[] eventParams = this.getEventParams(${executeArgList});
+        // 事件调度，如果有返回值，则返回事件调度结果；如果没有返回值，就返回null
+        Object scheduleResult = eventScheduler.scheduler(eventCode, condition, eventParams);
+        // TODO: 请完善实际业务逻辑
+        return null;
+    }
+    /**
+     * 获取事件编码
+     *
+     * @return 事件编码
+     */
+    private String getEventCode(${executeParameter}) {
+        // 事件规则：创建用户
+        return "HIAM.CREATION_USER";
+    }
+    /**
+     * 获取事件调用条件对象
+     *
+     * @return 事件调用条件对象
+     */
+    private Map&lt;String, Object&gt; getEventSchedulerCondition(${executeParameter}) {
+        // 条件对象
+        Map&lt;String, Object&gt; condition = new HashMap&lt;&gt;(16);
+        // TODO: 请完善条件对象数据填充
+        // 例： condition.put("age", 100);
+        // 返回条件对象
+        return condition;
+    }
+    /**
+     * 获取事件参数
+     *
+     * @return 事件参数
+     * @see EventParam
+     * @see ApiParam
+     * @see MethodParam
+     * @see WebHookParam
+     */
+    private EventParam[] getEventParams(${executeParameter}) {
+        // TODO: 请完善事件参数的创建逻辑
+        // 目前共有三种事件参数类型：ApiParam、MethodParam、WebHookParam
+        return new EventParam[0];
+    }
+    /**
+     * 获取事件调度器
+     *
+     * @return 事件调度器
+     */
+    private EventScheduler getEventScheduler() {
+        // 使用ApplicationContext获取EventScheduler对象
+        return ApplicationContextHelper.getContext().getBean(EventScheduler.class);
+    }
+}</t>
+  </si>
+  <si>
+    <t>hpfm_common_template-11</t>
+  </si>
+  <si>
+    <t>HPFM.EVENT_RULE.CREATION_EMPLOYEE</t>
+  </si>
+  <si>
+    <t>事件规则：创建员工</t>
+  </si>
+  <si>
+    <t>package org.hzero.template.event.rule;
+import io.choerodon.core.convertor.ApplicationContextHelper;
+import org.hzero.boot.api.customize.commons.handler.ICustomizeHandler;
+import org.hzero.boot.platform.event.EventScheduler;
+import org.hzero.boot.platform.event.vo.ApiParam;
+import org.hzero.boot.platform.event.vo.EventParam;
+import org.hzero.boot.platform.event.vo.MethodParam;
+import org.hzero.boot.platform.event.vo.WebHookParam;
+import java.util.HashMap;
+import java.util.Map;
+/**
+ * 事件规则创建员工模板
+ * &lt;p&gt;
+ * 共有三处逻辑需要完善：
+ * 1、org.hzero.template.event.rule.EventRuleHandler.executeAdapter(java.lang.Long)
+ * 2、org.hzero.template.event.rule.EventRuleHandler.getEventSchedulerCondition()
+ * 3、org.hzero.template.event.rule.EventRuleHandler.getEventParams()
+ *
+ * @author admin
+ */
+public class EventRuleCreationEmployeeHandler implements ICustomizeHandler {
+    @Override
+    public Object execute(Object... args) {
+        return this.executeAdapter(${callParameter});
+    }
+    /**
+     * 实际执行的逻辑，该方法主要用于适配参数
+     */
+    private Object executeAdapter(${executeParameter}) {
+        // 获取事件调度器
+        EventScheduler eventScheduler = this.getEventScheduler();
+        // 获取事件编码
+        String eventCode = this.getEventCode(${executeArgList});
+        // 获取事件调度条件对象
+        Map&lt;String, Object&gt; condition = this.getEventSchedulerCondition(${executeArgList});
+        // 获取事件参数
+        EventParam[] eventParams = this.getEventParams(${executeArgList});
+        // 事件调度，如果有返回值，则返回事件调度结果；如果没有返回值，就返回null
+        Object scheduleResult = eventScheduler.scheduler(eventCode, condition, eventParams);
+        // TODO: 请完善实际业务逻辑
+        return null;
+    }
+    /**
+     * 获取事件编码
+     *
+     * @return 事件编码
+     */
+    private String getEventCode(${executeParameter}) {
+        // 事件规则：创建员工
+        return "HPFM.CREATION_EMPLOYEE";
+    }
+    /**
+     * 获取事件调用条件对象
+     *
+     * @return 事件调用条件对象
+     */
+    private Map&lt;String, Object&gt; getEventSchedulerCondition(${executeParameter}) {
+        // 条件对象
+        Map&lt;String, Object&gt; condition = new HashMap&lt;&gt;(16);
+        // TODO: 请完善条件对象数据填充
+        // 例： condition.put("age", 100);
+        // 返回条件对象
+        return condition;
+    }
+    /**
+     * 获取事件参数
+     *
+     * @return 事件参数
+     * @see EventParam
+     * @see ApiParam
+     * @see MethodParam
+     * @see WebHookParam
+     */
+    private EventParam[] getEventParams(${executeParameter}) {
+        // TODO: 请完善事件参数的创建逻辑
+        // 目前共有三种事件参数类型：ApiParam、MethodParam、WebHookParam
+        return new EventParam[0];
+    }
+    /**
+     * 获取事件调度器
+     *
+     * @return 事件调度器
+     */
+    private EventScheduler getEventScheduler() {
+        // 使用ApplicationContext获取EventScheduler对象
+        return ApplicationContextHelper.getContext().getBean(EventScheduler.class);
+    }
+}</t>
+  </si>
+  <si>
+    <t>hpfm_common_template-12</t>
+  </si>
+  <si>
     <t>HIAM.EVENT_RULE.CREATION_TENANT</t>
   </si>
   <si>
     <t>事件规则：创建租户</t>
-  </si>
-  <si>
-    <t>API_CUSZ</t>
   </si>
   <si>
     <t>package org.hzero.template.event.rule;
@@ -2139,374 +2487,1130 @@
 }</t>
   </si>
   <si>
-    <t>zh_CN</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>now</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>hpfm_common_template-9</t>
-  </si>
-  <si>
-    <t>HIAM.EVENT_RULE.CREATION_USER</t>
-  </si>
-  <si>
-    <t>事件规则：创建用户</t>
-  </si>
-  <si>
-    <t>package org.hzero.template.event.rule;
-import io.choerodon.core.convertor.ApplicationContextHelper;
-import org.hzero.boot.api.customize.commons.handler.ICustomizeHandler;
-import org.hzero.boot.platform.event.EventScheduler;
-import org.hzero.boot.platform.event.vo.ApiParam;
-import org.hzero.boot.platform.event.vo.EventParam;
-import org.hzero.boot.platform.event.vo.MethodParam;
-import org.hzero.boot.platform.event.vo.WebHookParam;
-import java.util.HashMap;
-import java.util.Map;
-/**
- * 事件规则创建用户模板
- * &lt;p&gt;
- * 共有三处逻辑需要完善：
- * 1、org.hzero.template.event.rule.EventRuleHandler.executeAdapter(java.lang.Long)
- * 2、org.hzero.template.event.rule.EventRuleHandler.getEventSchedulerCondition()
- * 3、org.hzero.template.event.rule.EventRuleHandler.getEventParams()
- *
- * @author admin
- */
-public class EventRuleCreationUserHandler implements ICustomizeHandler {
-    @Override
-    public Object execute(Object... args) {
-        return this.executeAdapter(${callParameter});
+    <t>hpfm_common_template-13</t>
+  </si>
+  <si>
+    <t>HPFM.BASE.GROOVY</t>
+  </si>
+  <si>
+    <t>API个性化基础模板(Groovy)</t>
+  </si>
+  <si>
+    <t>// groovy</t>
+  </si>
+  <si>
+    <t>hpfm_common_template-14</t>
+  </si>
+  <si>
+    <t>HPFM.BASE.URL</t>
+  </si>
+  <si>
+    <t>API个性化基础模板(Url)</t>
+  </si>
+  <si>
+    <t>// url</t>
+  </si>
+  <si>
+    <t>hpfm_common_template-15</t>
+  </si>
+  <si>
+    <t>HIAM.HIAM_ROLE_AUTH_DATA.MYSQL</t>
+  </si>
+  <si>
+    <t>HIAM_ROLE_AUTH_DATA 分表 MySQL 建表脚本</t>
+  </si>
+  <si>
+    <t>SPLIT_TABLE_CREATE</t>
+  </si>
+  <si>
+    <t>CREATE TABLE `${splitTableName}`
+(
+    `auth_data_id`          bigint(20)  NOT NULL AUTO_INCREMENT,
+    `role_id`               bigint(20)  NOT NULL COMMENT '用户ID，iam_role.role_id',
+    `tenant_id`             bigint(20)  NOT NULL COMMENT '租户ID，HPFM.HPFM_TENANT',
+    `authority_type_code`   varchar(30) NOT NULL COMMENT '权限类型代码，HIAM.AUTHORITY_TYPE_CODE',
+    `include_all_flag`      tinyint(4)  NOT NULL DEFAULT 0 COMMENT '是否包含所有标识',
+    `object_version_number` bigint(20)  NOT NULL DEFAULT 1 COMMENT '行版本号，用来处理锁',
+    `creation_date`         datetime    NOT NULL DEFAULT CURRENT_TIMESTAMP,
+    `created_by`            bigint(20)  NOT NULL DEFAULT -1,
+    `last_updated_by`       bigint(20)  NOT NULL DEFAULT -1,
+    `last_update_date`      datetime    NOT NULL DEFAULT CURRENT_TIMESTAMP,
+    `menu_id`               bigint(20)  NOT NULL DEFAULT -1 COMMENT '菜单Id，iam_menu.id',
+    PRIMARY KEY (`auth_data_id`),
+    UNIQUE KEY `${splitTableName}_u1` (`role_id`, `tenant_id`, `authority_type_code`, `menu_id`)
+) ENGINE = InnoDB
+  DEFAULT CHARSET = utf8mb4
+  COLLATE = utf8mb4_bin COMMENT ='角色单据权限管理'</t>
+  </si>
+  <si>
+    <t>hpfm_common_template-16</t>
+  </si>
+  <si>
+    <t>HIAM.HIAM_ROLE_AUTH_DATA.ORACLE</t>
+  </si>
+  <si>
+    <t>HIAM_ROLE_AUTH_DATA 分表 Oracle 建表脚本</t>
+  </si>
+  <si>
+    <t>CREATE TABLE ${splitTableName}
+(
+    AUTH_DATA_ID          NUMBER(38, 0)                           NOT NULL ENABLE,
+    ROLE_ID               NUMBER(38, 0)                           NOT NULL ENABLE,
+    TENANT_ID             NUMBER(38, 0)                           NOT NULL ENABLE,
+    AUTHORITY_TYPE_CODE   VARCHAR2(90)                            NOT NULL ENABLE,
+    INCLUDE_ALL_FLAG      NUMBER(3, 0)  DEFAULT 0                 NOT NULL ENABLE,
+    OBJECT_VERSION_NUMBER NUMBER(38, 0) DEFAULT 1                 NOT NULL ENABLE,
+    CREATION_DATE         TIMESTAMP(6)  DEFAULT CURRENT_TIMESTAMP NOT NULL ENABLE,
+    CREATED_BY            NUMBER(38, 0) DEFAULT -1                NOT NULL ENABLE,
+    LAST_UPDATED_BY       NUMBER(38, 0) DEFAULT -1                NOT NULL ENABLE,
+    LAST_UPDATE_DATE      TIMESTAMP(6)  DEFAULT CURRENT_TIMESTAMP NOT NULL ENABLE,
+    MENU_ID NUMBER(38,0) DEFAULT '-1' NOT NULL ENABLE, 
+    CONSTRAINT PK_${splitTableName} PRIMARY KEY (AUTH_DATA_ID)
+        USING INDEX PCTFREE 10 INITRANS 2 MAXTRANS 255 COMPUTE STATISTICS NOCOMPRESS LOGGING
+            TABLESPACE "USERS" ENABLE,
+    CONSTRAINT ${splitTableName}_U1 UNIQUE (ROLE_ID, TENANT_ID, AUTHORITY_TYPE_CODE, MENU_ID)
+        USING INDEX PCTFREE 10 INITRANS 2 MAXTRANS 255 COMPUTE STATISTICS NOCOMPRESS LOGGING
+            TABLESPACE "USERS" ENABLE
+) SEGMENT CREATION DEFERRED
+    PCTFREE 10 PCTUSED 40 INITRANS 1 MAXTRANS 255 NOCOMPRESS LOGGING
+    TABLESPACE "USERS"</t>
+  </si>
+  <si>
+    <t>468</t>
+  </si>
+  <si>
+    <t>hpfm_common_template-17</t>
+  </si>
+  <si>
+    <t>HIAM.HIAM_ROLE_AUTH_DATA.SQLSERVER</t>
+  </si>
+  <si>
+    <t>HIAM_ROLE_AUTH_DATA 分表 Sql Server 建表脚本</t>
+  </si>
+  <si>
+    <t>CREATE TABLE [dbo].[${splitTableName}]
+(
+    [auth_data_id]          bigint IDENTITY (1,1)                                     NOT NULL,
+    [role_id]               bigint                                                    NOT NULL,
+    [tenant_id]             bigint                                                    NOT NULL,
+    [authority_type_code]   varchar(60) COLLATE Chinese_PRC_CI_AS                     NOT NULL,
+    [include_all_flag]      tinyint                               DEFAULT ((0))       NOT NULL,
+    [object_version_number] bigint                                DEFAULT ((1))       NOT NULL,
+    [creation_date]         datetime                              DEFAULT (getdate()) NOT NULL,
+    [created_by]            bigint                                DEFAULT ((-1))      NOT NULL,
+    [last_updated_by]       bigint                                DEFAULT ((-1))      NOT NULL,
+    [last_update_date]      datetime                              DEFAULT (getdate()) NOT NULL,
+    [menu_id]               bigint                                DEFAULT ((-1))      NOT NULL,
+    CONSTRAINT [PK_${splitTableName}] PRIMARY KEY CLUSTERED ([auth_data_id])
+        WITH (PAD_INDEX = OFF, STATISTICS_NORECOMPUTE = OFF, IGNORE_DUP_KEY = OFF, ALLOW_ROW_LOCKS = ON, ALLOW_PAGE_LOCKS = ON)
+        ON [PRIMARY],
+    CONSTRAINT [${splitTableName}_u1] UNIQUE NONCLUSTERED ([role_id] ASC, [tenant_id] ASC, [authority_type_code] ASC,
+                                                           [menu_id] ASC)
+        WITH (PAD_INDEX = OFF, STATISTICS_NORECOMPUTE = OFF, IGNORE_DUP_KEY = OFF, ALLOW_ROW_LOCKS = ON, ALLOW_PAGE_LOCKS = ON)
+        ON [PRIMARY]
+)
+    ON [PRIMARY]
+GO
+ALTER TABLE [dbo].[${splitTableName}]
+    SET (LOCK_ESCALATION = TABLE)
+GO
+EXEC sp_addextendedproperty
+     'MS_Description', N'表ID，主键，供其他表做外键',
+     'SCHEMA', N'dbo',
+     'TABLE', N'${splitTableName}',
+     'COLUMN', N'auth_data_id'
+GO
+EXEC sp_addextendedproperty
+     'MS_Description', N'用户ID，iam_role.role_id',
+     'SCHEMA', N'dbo',
+     'TABLE', N'${splitTableName}',
+     'COLUMN', N'role_id'
+GO
+EXEC sp_addextendedproperty
+     'MS_Description', N'租户ID，HPFM.HPFM_TENANT',
+     'SCHEMA', N'dbo',
+     'TABLE', N'${splitTableName}',
+     'COLUMN', N'tenant_id'
+GO
+EXEC sp_addextendedproperty
+     'MS_Description', N'权限类型代码，HIAM.AUTHORITY_TYPE_CODE',
+     'SCHEMA', N'dbo',
+     'TABLE', N'${splitTableName}',
+     'COLUMN', N'authority_type_code'
+GO
+EXEC sp_addextendedproperty
+     'MS_Description', N'是否包含所有标识',
+     'SCHEMA', N'dbo',
+     'TABLE', N'${splitTableName}',
+     'COLUMN', N'include_all_flag'
+GO
+EXEC sp_addextendedproperty
+     'MS_Description', N'行版本号，用来处理锁',
+     'SCHEMA', N'dbo',
+     'TABLE', N'${splitTableName}',
+     'COLUMN', N'object_version_number'
+GO
+EXEC sp_addextendedproperty
+     'MS_Description', N'菜单Id，iam_menu.id',
+     'SCHEMA', N'dbo',
+     'TABLE', N'${splitTableName}',
+     'COLUMN', N'menu_id'
+GO
+EXEC sp_addextendedproperty
+     'MS_Description', N'角色单据权限管理',
+     'SCHEMA', N'dbo',
+     'TABLE', N'${splitTableName}'</t>
+  </si>
+  <si>
+    <t>hpfm_common_template-18</t>
+  </si>
+  <si>
+    <t>HIAM.HIAM_ROLE_AUTH_DATA.POSTGRESQL</t>
+  </si>
+  <si>
+    <t>HIAM_ROLE_AUTH_DATA 分表 PostgreSQL 建表脚本</t>
+  </si>
+  <si>
+    <t>create table ${splitTableName}
+(
+    auth_data_id          bigserial                                        not null
+        constraint pk_${splitTableName}
+            primary key,
+    role_id               bigint                                           not null,
+    tenant_id             bigint                                           not null,
+    authority_type_code   varchar(30)                                      not null,
+    include_all_flag      smallint    default 0                            not null,
+    object_version_number bigint      default 1                            not null,
+    creation_date         timestamp   default now()                        not null,
+    created_by            bigint      default '-1'::integer                not null,
+    last_updated_by       bigint      default '-1'::integer                not null,
+    last_update_date      timestamp   default now()                        not null,
+    constraint ${splitTableName}_u1
+        unique (role_id, tenant_id, authority_type_code)
+);
+comment on table ${splitTableName} is '角色单据权限管理';
+comment on column ${splitTableName}.auth_data_id is '表ID，主键，供其他表做外键';
+comment on column ${splitTableName}.role_id is '用户ID，iam_role.role_id';
+comment on column ${splitTableName}.tenant_id is '租户ID，HPFM.HPFM_TENANT';
+comment on column ${splitTableName}.authority_type_code is '权限类型代码，HIAM.AUTHORITY_TYPE_CODE';
+comment on column ${splitTableName}.include_all_flag is '是否包含所有标识';
+comment on column ${splitTableName}.object_version_number is '行版本号，用来处理锁';</t>
+  </si>
+  <si>
+    <t>hpfm_common_template-19</t>
+  </si>
+  <si>
+    <t>HIAM.HIAM_ROLE_AUTH_DATA.DEFAULT</t>
+  </si>
+  <si>
+    <t>HIAM_ROLE_AUTH_DATA 分表默认建表脚本</t>
+  </si>
+  <si>
+    <t>package script.db
+databaseChangeLog(logicalFilePath: 'script/db/${splitTableName}.groovy') {
+    changeSet(author: "qingsheng.chen@hand-china.com", id: "2019-06-14-${splitTableName}") {
+        def weight = 1
+        if (helper.isSqlServer()) {
+            weight = 2
+        } else if (helper.isOracle()) {
+            weight = 3
+        }
+        if (helper.dbType().isSupportSequence()) {
+            createSequence(sequenceName: '${splitTableName}_s', startValue: "1")
+        }
+        createTable(tableName: "${splitTableName}", remarks: "角色单据权限管理") {
+            column(name: "auth_data_id", type: "bigint", autoIncrement: true, remarks: "表ID，主键，供其他表做外键") { constraints(primaryKey: true) }
+            column(name: "role_id", type: "bigint", remarks: "用户ID，iam_role.role_id") { constraints(nullable: "false") }
+            column(name: "tenant_id", type: "bigint", remarks: "租户ID，HPFM.HPFM_TENANT") { constraints(nullable: "false") }
+            column(name: "authority_type_code", type: "varchar(" + 30 * weight + ")", remarks: "权限类型代码，HIAM.AUTHORITY_TYPE_CODE") { constraints(nullable: "false") }
+            column(name: "include_all_flag", type: "tinyint", defaultValue: "0", remarks: "是否包含所有标识") { constraints(nullable: "false") }
+            column(name: "object_version_number", type: "bigint", defaultValue: "1", remarks: "行版本号，用来处理锁") { constraints(nullable: "false") }
+            column(name: "creation_date", type: "datetime", defaultValueComputed: "CURRENT_TIMESTAMP", remarks: "") { constraints(nullable: "false") }
+            column(name: "created_by", type: "bigint", defaultValue: "-1", remarks: "") { constraints(nullable: "false") }
+            column(name: "last_updated_by", type: "bigint", defaultValue: "-1", remarks: "") { constraints(nullable: "false") }
+            column(name: "last_update_date", type: "datetime", defaultValueComputed: "CURRENT_TIMESTAMP", remarks: "") { constraints(nullable: "false") }
+        }
+        addUniqueConstraint(columnNames: "role_id,tenant_id,authority_type_code", tableName: "${splitTableName}", constraintName: "${splitTableName}_u1")
     }
-    /**
-     * 实际执行的逻辑，该方法主要用于适配参数
-     */
-    private Object executeAdapter(${executeParameter}) {
-        // 获取事件调度器
-        EventScheduler eventScheduler = this.getEventScheduler();
-        // 获取事件编码
-        String eventCode = this.getEventCode(${executeArgList});
-        // 获取事件调度条件对象
-        Map&lt;String, Object&gt; condition = this.getEventSchedulerCondition(${executeArgList});
-        // 获取事件参数
-        EventParam[] eventParams = this.getEventParams(${executeArgList});
-        // 事件调度，如果有返回值，则返回事件调度结果；如果没有返回值，就返回null
-        Object scheduleResult = eventScheduler.scheduler(eventCode, condition, eventParams);
-        // TODO: 请完善实际业务逻辑
-        return null;
+    changeSet(author: "hzero@hand-china.com", id: "2020-05-28-${splitTableName}") {
+        update(tableName: '${splitTableName}') {
+            column(name: 'authority_type_code', value: 'INV_ORGANIZATION')
+            where "authority_type_code='INVORG'"
+        }
+        update(tableName: '${splitTableName}') {
+            column(name: 'authority_type_code', value: 'PURCHASE_ORGANIZATION')
+            where "authority_type_code='PURORG'"
+        }
+        update(tableName: '${splitTableName}') {
+            column(name: 'authority_type_code', value: 'PURCHASE_AGENT')
+            where "authority_type_code='PURAGENT'"
+        }
     }
-    /**
-     * 获取事件编码
-     *
-     * @return 事件编码
-     */
-    private String getEventCode(${executeParameter}) {
-        // 事件规则：创建用户
-        return "HIAM.CREATION_USER";
+    changeSet(author: "xiaoyu.zhao@hand-china.com", id: "${splitTableName}-2021-01-08") {
+        addColumn(tableName: "${splitTableName}") {
+            column(name: "menu_id", type: "bigint", remarks: "菜单Id，iam_menu.id", defaultValue: "-1") {
+                constraints(nullable: "false")
+            }
+        }
+        dropUniqueConstraint(tableName: "${splitTableName}", constraintName: "${splitTableName}_u1")
+        addUniqueConstraint(tableName: "${splitTableName}", columnNames: "role_id,tenant_id,authority_type_code,menu_id", constraintName: "${splitTableName}_u1")
     }
-    /**
-     * 获取事件调用条件对象
-     *
-     * @return 事件调用条件对象
-     */
-    private Map&lt;String, Object&gt; getEventSchedulerCondition(${executeParameter}) {
-        // 条件对象
-        Map&lt;String, Object&gt; condition = new HashMap&lt;&gt;(16);
-        // TODO: 请完善条件对象数据填充
-        // 例： condition.put("age", 100);
-        // 返回条件对象
-        return condition;
-    }
-    /**
-     * 获取事件参数
-     *
-     * @return 事件参数
-     * @see EventParam
-     * @see ApiParam
-     * @see MethodParam
-     * @see WebHookParam
-     */
-    private EventParam[] getEventParams(${executeParameter}) {
-        // TODO: 请完善事件参数的创建逻辑
-        // 目前共有三种事件参数类型：ApiParam、MethodParam、WebHookParam
-        return new EventParam[0];
-    }
-    /**
-     * 获取事件调度器
-     *
-     * @return 事件调度器
-     */
-    private EventScheduler getEventScheduler() {
-        // 使用ApplicationContext获取EventScheduler对象
-        return ApplicationContextHelper.getContext().getBean(EventScheduler.class);
+ changeSet(author: "hzero@hand-china.com", id: "${splitTableName}-2021-06-22-version-3") {
+        def weight = 1
+        if (helper.isSqlServer()) {
+            weight = 2
+        } else if (helper.isOracle()) {
+            weight = 3
+        }
+        dropNotNullConstraint (tableName: "${splitTableName}", columnName: "data_source", columnDataType: "varchar(" + 30* weight + ")") 
+        //mysql在删除非空约束时候会清空默认值
+        if (helper.isMysql()) {
+            addDefaultValue (tableName: "${splitTableName}", columnName: "data_source", columnDataType: "varchar(" + 30* weight + ")", defaultValue: "DEFAULT") 
+        }
     }
 }</t>
   </si>
   <si>
-    <t>hpfm_common_template-10</t>
-  </si>
-  <si>
-    <t>HPFM.BASE.GROOVY</t>
-  </si>
-  <si>
-    <t>API个性化基础模板(Groovy)</t>
-  </si>
-  <si>
-    <t>// groovy</t>
-  </si>
-  <si>
-    <t>hpfm_common_template-11</t>
-  </si>
-  <si>
-    <t>HPFM.BASE.JAVA</t>
-  </si>
-  <si>
-    <t>API个性化基础模板(Java)</t>
-  </si>
-  <si>
-    <t>package org.hzero.template.api.cusz;
-import io.choerodon.core.convertor.ApplicationContextHelper;
-import org.hzero.boot.api.customize.commons.handler.ICustomizeHandler;
-/**
- * API个性化基础模板处理模板
- * &lt;p&gt;
- * 共有一处逻辑需要完善：
- * 1、org.hzero.template.api.cusz.ApiCuszHandler.executeAdapter(java.lang.Long)
- *
- * @author admin
- */
-public class ApiCuszHandler implements ICustomizeHandler {
-    @Override
-    public Object execute(Object... args) {
-        return this.executeAdapter(${callParameter});
+    <t>hpfm_common_template-20</t>
+  </si>
+  <si>
+    <t>HIAM.HIAM_ROLE_AUTH_DATA_LINE.MYSQL</t>
+  </si>
+  <si>
+    <t>HIAM_ROLE_AUTH_DATA_LINE 分表 MySQL 建表脚本</t>
+  </si>
+  <si>
+    <t>CREATE TABLE `${splitTableName}`
+(
+    `auth_data_line_id`     bigint(20)  NOT NULL AUTO_INCREMENT,
+    `auth_data_id`          bigint(20)  NOT NULL COMMENT '权限ID，hiam_role_auth_data.auth_data_id',
+    `tenant_id`             bigint(20)  NOT NULL COMMENT '租户ID，HPFM.HPFM_TENANT',
+    `data_id`               bigint(20)  NOT NULL COMMENT '数据ID',
+    `data_code`             varchar(80)          DEFAULT NULL COMMENT '数据代码/编码',
+    `data_name`             varchar(360)         DEFAULT NULL COMMENT '数据名称',
+    `object_version_number` bigint(20)  NOT NULL DEFAULT 1 COMMENT '行版本号，用来处理锁',
+    `creation_date`         datetime    NOT NULL DEFAULT CURRENT_TIMESTAMP,
+    `created_by`            bigint(20)  NOT NULL DEFAULT -1,
+    `last_updated_by`       bigint(20)  NOT NULL DEFAULT -1,
+    `last_update_date`      datetime    NOT NULL DEFAULT CURRENT_TIMESTAMP,
+    `created_flag`       tinyint(1)  NOT NULL DEFAULT 1 COMMENT '用于新建的数据标识，默认为1，0-禁用，1-启用',
+    `queried_flag`       tinyint(1)  NOT NULL DEFAULT 1 COMMENT '用于查询的数据标识，默认为1，0-禁用，1-启用',
+    `removed_flag`       tinyint(1)  NOT NULL DEFAULT 1 COMMENT '用于删除的数据标识，默认为1，0-禁用，1-启用',
+    `updated_flag`       tinyint(1)  NOT NULL DEFAULT 1 COMMENT '用于更新的数据标识，默认为1，0-禁用，1-启用',
+    PRIMARY KEY (`auth_data_line_id`),
+    UNIQUE KEY `${splitTableName}_u1` (`auth_data_id`, `data_id`)
+) ENGINE = InnoDB
+  DEFAULT CHARSET = utf8mb4
+  COLLATE = utf8mb4_bin COMMENT ='角色单据权限管理行'</t>
+  </si>
+  <si>
+    <t>hpfm_common_template-21</t>
+  </si>
+  <si>
+    <t>HIAM.HIAM_ROLE_AUTH_DATA_LINE.ORACLE</t>
+  </si>
+  <si>
+    <t>HIAM_ROLE_AUTH_DATA_LINE 分表 Oracle 建表脚本</t>
+  </si>
+  <si>
+    <t>CREATE TABLE ${splitTableName}
+(
+    AUTH_DATA_LINE_ID     NUMBER(38, 0)                           NOT NULL ENABLE,
+    AUTH_DATA_ID          NUMBER(38, 0)                           NOT NULL ENABLE,
+    TENANT_ID             NUMBER(38, 0)                           NOT NULL ENABLE,
+    DATA_ID               NUMBER(38, 0)                           NOT NULL ENABLE,
+    DATA_CODE             VARCHAR2(240),
+    DATA_NAME             VARCHAR2(1080),
+    OBJECT_VERSION_NUMBER NUMBER(38, 0) DEFAULT 1                 NOT NULL ENABLE,
+    CREATION_DATE         TIMESTAMP(6)  DEFAULT CURRENT_TIMESTAMP NOT NULL ENABLE,
+    CREATED_BY            NUMBER(38, 0) DEFAULT -1                NOT NULL ENABLE,
+    LAST_UPDATED_BY       NUMBER(38, 0) DEFAULT -1                NOT NULL ENABLE,
+    LAST_UPDATE_DATE      TIMESTAMP(6)  DEFAULT CURRENT_TIMESTAMP NOT NULL ENABLE,
+queried_flag Number DEFAULT '1' NOT NULL,
+updated_flag Number DEFAULT '1' NOT NULL,
+created_flag Number DEFAULT '1' NOT NULL,
+removed_flag Number DEFAULT '1' NOT NULL,
+    CONSTRAINT PK_${splitTableName} PRIMARY KEY (AUTH_DATA_LINE_ID)
+        USING INDEX PCTFREE 10 INITRANS 2 MAXTRANS 255 COMPUTE STATISTICS NOCOMPRESS LOGGING
+            TABLESPACE "USERS" ENABLE,
+    CONSTRAINT ${splitTableName}_U1 UNIQUE (AUTH_DATA_ID, DATA_ID)
+        USING INDEX PCTFREE 10 INITRANS 2 MAXTRANS 255 COMPUTE STATISTICS NOCOMPRESS LOGGING
+            TABLESPACE "USERS" ENABLE
+) SEGMENT CREATION DEFERRED
+    PCTFREE 10 PCTUSED 40 INITRANS 1 MAXTRANS 255 NOCOMPRESS LOGGING
+    TABLESPACE "USERS"</t>
+  </si>
+  <si>
+    <t>hpfm_common_template-22</t>
+  </si>
+  <si>
+    <t>HIAM.HIAM_ROLE_AUTH_DATA_LINE.SQLSERVER</t>
+  </si>
+  <si>
+    <t>HIAM_ROLE_AUTH_DATA_LINE 分表 SqlServer 建表脚本</t>
+  </si>
+  <si>
+    <t>CREATE TABLE [dbo].[${splitTableName}]
+(
+    [auth_data_line_id]     bigint IDENTITY (1,1)                                     NOT NULL,
+    [auth_data_id]          bigint                                                    NOT NULL,
+    [tenant_id]             bigint                                                    NOT NULL,
+    [data_id]               bigint                                                    NOT NULL,
+    [data_code]             varchar(160) COLLATE Chinese_PRC_CI_AS                    NULL,
+    [data_name]             varchar(720) COLLATE Chinese_PRC_CI_AS                    NULL,
+    [object_version_number] bigint                                DEFAULT ((1))       NOT NULL,
+    [creation_date]         datetime                              DEFAULT (getdate()) NOT NULL,
+    [created_by]            bigint                                DEFAULT ((-1))      NOT NULL,
+    [last_updated_by]       bigint                                DEFAULT ((-1))      NOT NULL,
+    [last_update_date]      datetime                              DEFAULT (getdate()) NOT NULL,
+[queried_flag] Tinyint NOT NULL,
+[updated_flag] Tinyint NOT NULL,
+[created_flag] Tinyint NOT NULL,
+[removed_flag] Tinyint NOT NULL,
+    CONSTRAINT [PK_${splitTableName}] PRIMARY KEY CLUSTERED ([auth_data_line_id])
+        WITH (PAD_INDEX = OFF, STATISTICS_NORECOMPUTE = OFF, IGNORE_DUP_KEY = OFF, ALLOW_ROW_LOCKS = ON, ALLOW_PAGE_LOCKS = ON)
+        ON [PRIMARY],
+    CONSTRAINT [${splitTableName}_u1] UNIQUE NONCLUSTERED ([auth_data_id] ASC, [data_id] ASC)
+        WITH (PAD_INDEX = OFF, STATISTICS_NORECOMPUTE = OFF, IGNORE_DUP_KEY = OFF, ALLOW_ROW_LOCKS = ON, ALLOW_PAGE_LOCKS = ON)
+        ON [PRIMARY]
+)
+    ON [PRIMARY]
+GO
+ALTER TABLE [dbo].[${splitTableName}]
+    SET (LOCK_ESCALATION = TABLE)
+GO
+ALTER TABLE  [dbo].[${splitTableName}] ADD CONSTRAINT DF_${splitTableName}_queried_flag DEFAULT '1' for queried_flag
+ALTER TABLE  [dbo].[${splitTableName}] ADD CONSTRAINT DF_${splitTableName}_updated_flag DEFAULT '1' for updated_flag
+ALTER TABLE  [dbo].[${splitTableName}] ADD CONSTRAINT DF_${splitTableName}_created_flag DEFAULT '1' for created_flag
+ALTER TABLE  [dbo].[${splitTableName}] ADD CONSTRAINT DF_${splitTableName}_removed_flag DEFAULT '1' for removed_flag
+EXEC sp_addextendedproperty
+     'MS_Description', N'表ID，主键，供其他表做外键',
+     'SCHEMA', N'dbo',
+     'TABLE', N'${splitTableName}',
+     'COLUMN', N'auth_data_line_id'
+GO
+EXEC sp_addextendedproperty
+     'MS_Description', N'权限ID，hiam_role_auth_data.auth_data_id',
+     'SCHEMA', N'dbo',
+     'TABLE', N'${splitTableName}',
+     'COLUMN', N'auth_data_id'
+GO
+EXEC sp_addextendedproperty
+     'MS_Description', N'租户ID，HPFM.HPFM_TENANT',
+     'SCHEMA', N'dbo',
+     'TABLE', N'${splitTableName}',
+     'COLUMN', N'tenant_id'
+GO
+EXEC sp_addextendedproperty
+     'MS_Description', N'数据ID',
+     'SCHEMA', N'dbo',
+     'TABLE', N'${splitTableName}',
+     'COLUMN', N'data_id'
+GO
+EXEC sp_addextendedproperty
+     'MS_Description', N'数据代码/编码',
+     'SCHEMA', N'dbo',
+     'TABLE', N'${splitTableName}',
+     'COLUMN', N'data_code'
+GO
+EXEC sp_addextendedproperty
+     'MS_Description', N'数据名称',
+     'SCHEMA', N'dbo',
+     'TABLE', N'${splitTableName}',
+     'COLUMN', N'data_name'
+GO
+EXEC sp_addextendedproperty
+     'MS_Description', N'行版本号，用来处理锁',
+     'SCHEMA', N'dbo',
+     'TABLE', N'${splitTableName}',
+     'COLUMN', N'object_version_number'
+GO
+EXEC sp_addextendedproperty
+     'MS_Description', N'角色单据权限管理行',
+     'SCHEMA', N'dbo',
+     'TABLE', N'${splitTableName}'
+EXECUTE sp_addextendedproperty N'MS_Description', '用于查询的数据标识，默认为1，0-禁用，1-启用', N'user', N'dbo', N'table', N'${splitTableName}', N'column', N'queried_flag'
+EXECUTE sp_addextendedproperty N'MS_Description', '用于更新的数据标识，默认为1，0-禁用，1-启用', N'user', N'dbo', N'table', N'${splitTableName}', N'column', N'updated_flag'
+EXECUTE sp_addextendedproperty N'MS_Description', '用于新建的数据标识，默认为1，0-禁用，1-启用', N'user', N'dbo', N'table', N'${splitTableName}', N'column', N'created_flag'
+EXECUTE sp_addextendedproperty N'MS_Description', '用于删除的数据标识，默认为1，0-禁用，1-启用', N'user', N'dbo', N'table', N'${splitTableName}', N'column', N'removed_flag'</t>
+  </si>
+  <si>
+    <t>hpfm_common_template-23</t>
+  </si>
+  <si>
+    <t>HIAM.HIAM_ROLE_AUTH_DATA_LINE.POSTGRESQL</t>
+  </si>
+  <si>
+    <t>HIAM_ROLE_AUTH_DATA_LINE 分表 PostgreSQL 建表脚本</t>
+  </si>
+  <si>
+    <t>create table ${splitTableName}
+(
+    auth_data_line_id     bigserial                                        not null
+        constraint pk_${splitTableName}
+            primary key,
+    auth_data_id          bigint                                           not null,
+    tenant_id             bigint                                           not null,
+    data_id               bigint                                           not null,
+    data_code             varchar(80),
+    data_name             varchar(360),
+    object_version_number bigint      default 1                            not null,
+    creation_date         timestamp   default now()                        not null,
+    created_by            bigint      default '-1'::integer                not null,
+    last_updated_by       bigint      default '-1'::integer                not null,
+    last_update_date      timestamp   default now()                        not null,
+    queried_flag tinyint NOT NULL DEFAULT '1' COMMENT '用于查询的数据标识，默认为1，0-禁用，1-启用',
+    updated_flag tinyint NOT NULL DEFAULT '1' COMMENT '用于更新的数据标识，默认为1，0-禁用，1-启用',
+    created_flag tinyint NOT NULL DEFAULT '1' COMMENT '用于新建的数据标识，默认为1，0-禁用，1-启用',
+    removed_flag tinyint NOT NULL DEFAULT '1' COMMENT '用于删除的数据标识，默认为1，0-禁用，1-启用',
+    constraint ${splitTableName}_u1
+        unique (auth_data_id, data_id)
+);
+comment on table ${splitTableName} is '角色单据权限管理行';
+comment on column ${splitTableName}.auth_data_line_id is '表ID，主键，供其他表做外键';
+comment on column ${splitTableName}.auth_data_id is '权限ID，hiam_role_auth_data.auth_data_id';
+comment on column ${splitTableName}.tenant_id is '租户ID，HPFM.HPFM_TENANT';
+comment on column ${splitTableName}.data_id is '数据ID';
+comment on column ${splitTableName}.data_code is '数据代码/编码';
+comment on column ${splitTableName}.data_name is '数据名称';
+comment on column ${splitTableName}.object_version_number is '行版本号，用来处理锁';</t>
+  </si>
+  <si>
+    <t>hpfm_common_template-24</t>
+  </si>
+  <si>
+    <t>HIAM.HIAM_ROLE_AUTH_DATA_LINE.DEFAULT</t>
+  </si>
+  <si>
+    <t>HIAM_ROLE_AUTH_DATA_LINE 分表默认建表脚本</t>
+  </si>
+  <si>
+    <t>package script.db
+databaseChangeLog(logicalFilePath: 'script/db/${splitTableName}.groovy') {
+    changeSet(author: "qingsheng.chen@hand-china.com", id: "2019-06-14-${splitTableName}") {
+        def weight = 1
+        if (helper.isSqlServer()) {
+            weight = 2
+        } else if (helper.isOracle()) {
+            weight = 3
+        }
+        if (helper.dbType().isSupportSequence()) {
+            createSequence(sequenceName: '${splitTableName}_s', startValue: "1")
+        }
+        createTable(tableName: "${splitTableName}", remarks: "角色单据权限管理行") {
+            column(name: "auth_data_line_id", type: "bigint", autoIncrement: true, remarks: "表ID，主键，供其他表做外键") { constraints(primaryKey: true) }
+            column(name: "auth_data_id", type: "bigint", remarks: "权限ID，hiam_role_auth_data.auth_data_id") { constraints(nullable: "false") }
+            column(name: "tenant_id", type: "bigint", remarks: "租户ID，HPFM.HPFM_TENANT") { constraints(nullable: "false") }
+            column(name: "data_id", type: "bigint", remarks: "数据ID") { constraints(nullable: "false") }
+            column(name: "data_code", type: "varchar(" + 80 * weight + ")", remarks: "数据代码/编码")
+            column(name: "data_name", type: "varchar(" + 360 * weight + ")", remarks: "数据名称")
+            column(name: "object_version_number", type: "bigint", defaultValue: "1", remarks: "行版本号，用来处理锁") { constraints(nullable: "false") }
+            column(name: "creation_date", type: "datetime", defaultValueComputed: "CURRENT_TIMESTAMP", remarks: "") { constraints(nullable: "false") }
+            column(name: "created_by", type: "bigint", defaultValue: "-1", remarks: "") { constraints(nullable: "false") }
+            column(name: "last_updated_by", type: "bigint", defaultValue: "-1", remarks: "") { constraints(nullable: "false") }
+            column(name: "last_update_date", type: "datetime", defaultValueComputed: "CURRENT_TIMESTAMP", remarks: "") { constraints(nullable: "false") }
+        }
+        addUniqueConstraint(columnNames: "auth_data_id,data_id", tableName: "${splitTableName}", constraintName: "${splitTableName}_u1")
     }
-    /**
-     * 实际执行的逻辑，该方法主要用于适配参数
-     */
-    private Object executeAdapter(${executeParameter}) {
-        // TODO: 请完善实际业务逻辑
-        return null;
+    changeSet(author: 'jiangzhou.bo@hand-china.com', id: '2020-03-16-${splitTableName}') {
+        addColumn(tableName: '${splitTableName}') {
+            column(name: 'data_source', type: 'varchar(30)', defaultValue: "DEFAULT", remarks: '数据来源') { constraints(nullable: "false") }
+        }
+    }
+changeSet(author: "hzero@hand-china.com", id: "${splitTableName}-2021-05-18-version-2") {
+        addColumn (tableName: "${splitTableName}") {
+            column (name: "queried_flag", type: "tinyint", remarks: "用于查询的数据标识，默认为1，0-禁用，1-启用", afterColumn: "last_update_date", defaultValue: "1") {
+                constraints (nullable: "false") 
+            }
+        }
+        addColumn (tableName: "${splitTableName}") {
+            column (name: "updated_flag", type: "tinyint", remarks: "用于更新的数据标识，默认为1，0-禁用，1-启用", afterColumn: "queried_flag", defaultValue: "1") {
+                constraints (nullable: "false") 
+            }
+        }
+        addColumn (tableName: "${splitTableName}") {
+            column (name: "created_flag", type: "tinyint", remarks: "用于新建的数据标识，默认为1，0-禁用，1-启用", afterColumn: "updated_flag", defaultValue: "1") {
+                constraints (nullable: "false") 
+            }
+        }
+        addColumn (tableName: "${splitTableName}") {
+            column (name: "removed_flag", type: "tinyint", remarks: "用于删除的数据标识，默认为1，0-禁用，1-启用", afterColumn: "created_flag", defaultValue: "1") {
+                constraints (nullable: "false") 
+            }
+        }
+    }
+    changeSet(author: "hzero@hand-china.com", id: "${splitTableName}-2021-06-22-version-3") {
+        def weight = 1
+        if (helper.isSqlServer()) {
+            weight = 2
+        } else if (helper.isOracle()) {
+            weight = 3
+        }
+        dropNotNullConstraint (tableName: "${splitTableName}", columnName: "data_source", columnDataType: "varchar(" + 30* weight + ")") 
+        //mysql在删除非空约束时候会清空默认值
+        if (helper.isMysql()) {
+            addDefaultValue (tableName: "${splitTableName}", columnName: "data_source", columnDataType: "varchar(" + 30* weight + ")", defaultValue: "DEFAULT") 
+        }
     }
 }</t>
   </si>
   <si>
-    <t>hpfm_common_template-12</t>
-  </si>
-  <si>
-    <t>HPFM.BASE.URL</t>
-  </si>
-  <si>
-    <t>API个性化基础模板(Url)</t>
-  </si>
-  <si>
-    <t>// url</t>
-  </si>
-  <si>
-    <t>hpfm_common_template-13</t>
-  </si>
-  <si>
-    <t>HPFM.EVENT_RULE.CREATION_EMPLOYEE</t>
-  </si>
-  <si>
-    <t>事件规则：创建员工</t>
-  </si>
-  <si>
-    <t>package org.hzero.template.event.rule;
-import io.choerodon.core.convertor.ApplicationContextHelper;
-import org.hzero.boot.api.customize.commons.handler.ICustomizeHandler;
-import org.hzero.boot.platform.event.EventScheduler;
-import org.hzero.boot.platform.event.vo.ApiParam;
-import org.hzero.boot.platform.event.vo.EventParam;
-import org.hzero.boot.platform.event.vo.MethodParam;
-import org.hzero.boot.platform.event.vo.WebHookParam;
-import java.util.HashMap;
-import java.util.Map;
-/**
- * 事件规则创建员工模板
- * &lt;p&gt;
- * 共有三处逻辑需要完善：
- * 1、org.hzero.template.event.rule.EventRuleHandler.executeAdapter(java.lang.Long)
- * 2、org.hzero.template.event.rule.EventRuleHandler.getEventSchedulerCondition()
- * 3、org.hzero.template.event.rule.EventRuleHandler.getEventParams()
- *
- * @author admin
- */
-public class EventRuleCreationEmployeeHandler implements ICustomizeHandler {
-    @Override
-    public Object execute(Object... args) {
-        return this.executeAdapter(${callParameter});
+    <t>hpfm_common_template-25</t>
+  </si>
+  <si>
+    <t>HIAM.HIAM_USER_AUTHORITY.MYSQL</t>
+  </si>
+  <si>
+    <t>HIAM_USER_AUTHORITY 分表 MySQL 建表脚本</t>
+  </si>
+  <si>
+    <t>CREATE TABLE `${splitTableName}`
+(
+    `authority_id`          bigint(20)                      NOT NULL AUTO_INCREMENT,
+    `user_id`               bigint(20)                      NOT NULL COMMENT '用户ID，HIAM.HIAM_USER',
+    `tenant_id`             bigint(20)                      NOT NULL COMMENT '租户ID，HPFM.HPFM_TENANT',
+    `authority_type_code`   varchar(30) COLLATE utf8mb4_bin NOT NULL COMMENT '权限类型代码，HIAM.USER_AUTHORITY_TYPE_CODE',
+    `include_all_flag`      tinyint(1)                      NOT NULL DEFAULT '0' COMMENT '是否包含所有标识',
+    `object_version_number` bigint(20)                      NOT NULL DEFAULT '1' COMMENT '行版本号，用来处理锁',
+    `creation_date`         datetime                        NOT NULL DEFAULT CURRENT_TIMESTAMP,
+    `created_by`            bigint(20)                      NOT NULL DEFAULT '-1',
+    `last_updated_by`       bigint(20)                      NOT NULL DEFAULT '-1',
+    `last_update_date`      datetime                        NOT NULL DEFAULT CURRENT_TIMESTAMP,
+    `menu_id`               bigint(20)                      NOT NULL DEFAULT '-1' COMMENT '菜单Id，iam_menu.id',
+    `role_id`               bigint(20)                      NOT NULL DEFAULT '-1' COMMENT '角色Id，iam_role.id',
+    PRIMARY KEY (`authority_id`),
+    UNIQUE KEY `${splitTableName}_u1` (`user_id`, `authority_type_code`, `tenant_id`, `menu_id`, `role_id`) USING BTREE
+) ENGINE = InnoDB
+  DEFAULT CHARSET = utf8mb4
+  COLLATE = utf8mb4_bin COMMENT ='用户权限管理'</t>
+  </si>
+  <si>
+    <t>hpfm_common_template-26</t>
+  </si>
+  <si>
+    <t>HIAM.HIAM_USER_AUTHORITY.ORACLE</t>
+  </si>
+  <si>
+    <t>HIAM_USER_AUTHORITY 分表 Oracle 建表脚本</t>
+  </si>
+  <si>
+    <t>CREATE TABLE ${splitTableName}
+(
+    AUTHORITY_ID          NUMBER(38, 0)                           NOT NULL ENABLE,
+    USER_ID               NUMBER(38, 0)                           NOT NULL ENABLE,
+    TENANT_ID             NUMBER(38, 0)                           NOT NULL ENABLE,
+    AUTHORITY_TYPE_CODE   VARCHAR2(90)                            NOT NULL ENABLE,
+    INCLUDE_ALL_FLAG      NUMBER(3, 0)  DEFAULT 0                 NOT NULL ENABLE,
+    OBJECT_VERSION_NUMBER NUMBER(38, 0) DEFAULT 1                 NOT NULL ENABLE,
+    CREATION_DATE         TIMESTAMP(6)  DEFAULT CURRENT_TIMESTAMP NOT NULL ENABLE,
+    CREATED_BY            NUMBER(38, 0) DEFAULT -1                NOT NULL ENABLE,
+    LAST_UPDATED_BY       NUMBER(38, 0) DEFAULT -1                NOT NULL ENABLE,
+    LAST_UPDATE_DATE      TIMESTAMP(6)  DEFAULT CURRENT_TIMESTAMP NOT NULL ENABLE,
+    MENU_ID               NUMBER(38, 0) DEFAULT '-1'              NOT NULL ENABLE,
+    ROLE_ID NUMBER(38, 0) DEFAULT -1                 NOT NULL ENABLE,
+    CONSTRAINT PK_${splitTableName} PRIMARY KEY (AUTHORITY_ID)
+        USING INDEX PCTFREE 10 INITRANS 2 MAXTRANS 255 COMPUTE STATISTICS NOCOMPRESS LOGGING
+            TABLESPACE "USERS" ENABLE,
+    CONSTRAINT ${splitTableName}_U1 UNIQUE (USER_ID, AUTHORITY_TYPE_CODE, TENANT_ID, MENU_ID)
+        USING INDEX PCTFREE 10 INITRANS 2 MAXTRANS 255 COMPUTE STATISTICS NOCOMPRESS LOGGING
+            TABLESPACE "USERS" ENABLE
+) SEGMENT CREATION DEFERRED
+    PCTFREE 10 PCTUSED 40 INITRANS 1 MAXTRANS 255 NOCOMPRESS LOGGING
+    TABLESPACE "USERS"</t>
+  </si>
+  <si>
+    <t>hpfm_common_template-27</t>
+  </si>
+  <si>
+    <t>HIAM.HIAM_USER_AUTHORITY.SQLSERVER</t>
+  </si>
+  <si>
+    <t>HIAM_USER_AUTHORITY 分表 SqlServer 建表脚本</t>
+  </si>
+  <si>
+    <t>CREATE TABLE [dbo].[${splitTableName}]
+(
+    [authority_id]          bigint IDENTITY (1,1)                                     NOT NULL,
+    [user_id]               bigint                                                    NOT NULL,
+    [tenant_id]             bigint                                                    NOT NULL,
+    [authority_type_code]   varchar(60) COLLATE Chinese_PRC_CI_AS                     NOT NULL,
+    [include_all_flag]      tinyint                               DEFAULT ((0))       NOT NULL,
+    [object_version_number] bigint                                DEFAULT ((1))       NOT NULL,
+    [creation_date]         datetime                              DEFAULT (getdate()) NOT NULL,
+    [created_by]            bigint                                DEFAULT ((-1))      NOT NULL,
+    [last_updated_by]       bigint                                DEFAULT ((-1))      NOT NULL,
+    [last_update_date]      datetime                              DEFAULT (getdate()) NOT NULL,
+    [menu_id]               bigint                                DEFAULT ((-1))      NOT NULL,
+    [role_id] bigint                                DEFAULT ((-1))       NOT NULL,
+    CONSTRAINT [PK_${splitTableName}] PRIMARY KEY CLUSTERED ([authority_id])
+        WITH (PAD_INDEX = OFF, STATISTICS_NORECOMPUTE = OFF, IGNORE_DUP_KEY = OFF, ALLOW_ROW_LOCKS = ON, ALLOW_PAGE_LOCKS = ON)
+        ON [PRIMARY],
+    CONSTRAINT [${splitTableName}_u1] UNIQUE NONCLUSTERED ([user_id] ASC, [authority_type_code] ASC, [tenant_id] ASC,
+                                                             [menu_id] ASC)
+        WITH (PAD_INDEX = OFF, STATISTICS_NORECOMPUTE = OFF, IGNORE_DUP_KEY = OFF, ALLOW_ROW_LOCKS = ON, ALLOW_PAGE_LOCKS = ON)
+        ON [PRIMARY]
+)
+    ON [PRIMARY]
+GO
+ALTER TABLE [dbo].[${splitTableName}]
+    SET (LOCK_ESCALATION = TABLE)
+GO
+EXEC sp_addextendedproperty
+     'MS_Description', N'表ID，主键，供其他表做外键',
+     'SCHEMA', N'dbo',
+     'TABLE', N'${splitTableName}',
+     'COLUMN', N'authority_id'
+GO
+EXEC sp_addextendedproperty
+     'MS_Description', N'用户ID，HIAM.HIAM_USER',
+     'SCHEMA', N'dbo',
+     'TABLE', N'${splitTableName}',
+     'COLUMN', N'user_id'
+GO
+EXEC sp_addextendedproperty
+     'MS_Description', N'租户ID，HPFM.HPFM_TENANT',
+     'SCHEMA', N'dbo',
+     'TABLE', N'${splitTableName}',
+     'COLUMN', N'tenant_id'
+GO
+EXEC sp_addextendedproperty
+     'MS_Description', N'权限类型代码，HIAM.USER_AUTHORITY_TYPE_CODE',
+     'SCHEMA', N'dbo',
+     'TABLE', N'${splitTableName}',
+     'COLUMN', N'authority_type_code'
+GO
+EXEC sp_addextendedproperty
+     'MS_Description', N'是否包含所有标识',
+     'SCHEMA', N'dbo',
+     'TABLE', N'${splitTableName}',
+     'COLUMN', N'include_all_flag'
+GO
+EXEC sp_addextendedproperty
+     'MS_Description', N'行版本号，用来处理锁',
+     'SCHEMA', N'dbo',
+     'TABLE', N'${splitTableName}',
+     'COLUMN', N'object_version_number'
+GO
+EXEC sp_addextendedproperty
+     'MS_Description', N'菜单Id，iam_menu.id',
+     'SCHEMA', N'dbo',
+     'TABLE', N'${splitTableName}',
+     'COLUMN', N'menu_id'
+GO
+EXEC sp_addextendedproperty
+     'MS_Description', N'用户权限管理',
+     'SCHEMA', N'dbo',
+     'TABLE', N'${splitTableName}'
+EXEC sp_addextendedproperty
+     'MS_Description', N'角色Id，iam_role.id',
+     'SCHEMA', N'dbo',
+     'TABLE', N'${splitTableName}',
+     'COLUMN', N'role_id'
+GO</t>
+  </si>
+  <si>
+    <t>hpfm_common_template-28</t>
+  </si>
+  <si>
+    <t>HIAM.HIAM_USER_AUTHORITY.POSTGRESQL</t>
+  </si>
+  <si>
+    <t>HIAM_USER_AUTHORITY 分表 PostgreSQL 建表脚本</t>
+  </si>
+  <si>
+    <t>create table ${splitTableName}
+(
+    authority_id          bigserial                                        not null
+        constraint pk_${splitTableName}
+            primary key,
+    user_id               bigint                                           not null,
+    tenant_id             bigint                                           not null,
+    authority_type_code   varchar(30)                                      not null,
+    include_all_flag      smallint    default 0                            not null,
+    object_version_number bigint      default 1                            not null,
+    creation_date         timestamp   default now()                        not null,
+    created_by            bigint      default '-1'::integer                not null,
+    last_updated_by       bigint      default '-1'::integer                not null,
+    last_update_date      timestamp   default now()                        not null,
+    constraint ${splitTableName}_u1
+        unique (user_id, authority_type_code, tenant_id)
+);
+comment on table ${splitTableName} is '用户权限管理';
+comment on column ${splitTableName}.authority_id is '表ID，主键，供其他表做外键';
+comment on column ${splitTableName}.user_id is '用户ID，HIAM.HIAM_USER';
+comment on column ${splitTableName}.tenant_id is '租户ID，HPFM.HPFM_TENANT';
+comment on column ${splitTableName}.authority_type_code is '权限类型代码，HIAM.USER_AUTHORITY_TYPE_CODE';
+comment on column ${splitTableName}.include_all_flag is '是否包含所有标识';
+comment on column ${splitTableName}.object_version_number is '行版本号，用来处理锁';</t>
+  </si>
+  <si>
+    <t>hpfm_common_template-29</t>
+  </si>
+  <si>
+    <t>HIAM.HIAM_USER_AUTHORITY.DEFAULT</t>
+  </si>
+  <si>
+    <t>HIAM_USER_AUTHORITY 分表默认建表脚本</t>
+  </si>
+  <si>
+    <t>package script.db
+databaseChangeLog(logicalFilePath: 'script/db/${splitTableName}.groovy') {
+    changeSet(author: "hzero@hand-china.com", id: "2019-03-01-${splitTableName}") {
+        def weight = 1
+        if (helper.isSqlServer()) {
+            weight = 2
+        } else if (helper.isOracle()) {
+            weight = 3
+        }
+        if (helper.dbType().isSupportSequence()) {
+            createSequence(sequenceName: '${splitTableName}_s', startValue: "1")
+        }
+        createTable(tableName: "${splitTableName}", remarks: "用户权限管理") {
+            column(name: "authority_id", type: "bigint", autoIncrement: true, remarks: "表ID，主键，供其他表做外键") { constraints(primaryKey: true) }
+            column(name: "user_id", type: "bigint", remarks: "用户ID，HIAM.HIAM_USER") { constraints(nullable: "false") }
+            column(name: "tenant_id", type: "bigint", remarks: "租户ID，HPFM.HPFM_TENANT") { constraints(nullable: "false") }
+            column(name: "authority_type_code", type: "varchar(" + 30 * weight + ")", remarks: "权限类型代码，HIAM.USER_AUTHORITY_TYPE_CODE") { constraints(nullable: "false") }
+            column(name: "include_all_flag", type: "tinyint", defaultValue: "0", remarks: "是否包含所有标识") { constraints(nullable: "false") }
+            column(name: "object_version_number", type: "bigint", defaultValue: "1", remarks: "行版本号，用来处理锁") { constraints(nullable: "false") }
+            column(name: "creation_date", type: "datetime", defaultValueComputed: "CURRENT_TIMESTAMP", remarks: "") { constraints(nullable: "false") }
+            column(name: "created_by", type: "bigint", defaultValue: "-1", remarks: "") { constraints(nullable: "false") }
+            column(name: "last_updated_by", type: "bigint", defaultValue: "-1", remarks: "") { constraints(nullable: "false") }
+            column(name: "last_update_date", type: "datetime", defaultValueComputed: "CURRENT_TIMESTAMP", remarks: "") { constraints(nullable: "false") }
+        }
+        createIndex(tableName: "${splitTableName}", indexName: "${splitTableName}_n1") {
+            column(name: "user_id")
+            column(name: "authority_type_code")
+            column(name: "tenant_id")
+        }
     }
-    /**
-     * 实际执行的逻辑，该方法主要用于适配参数
-     */
-    private Object executeAdapter(${executeParameter}) {
-        // 获取事件调度器
-        EventScheduler eventScheduler = this.getEventScheduler();
-        // 获取事件编码
-        String eventCode = this.getEventCode(${executeArgList});
-        // 获取事件调度条件对象
-        Map&lt;String, Object&gt; condition = this.getEventSchedulerCondition(${executeArgList});
-        // 获取事件参数
-        EventParam[] eventParams = this.getEventParams(${executeArgList});
-        // 事件调度，如果有返回值，则返回事件调度结果；如果没有返回值，就返回null
-        Object scheduleResult = eventScheduler.scheduler(eventCode, condition, eventParams);
-        // TODO: 请完善实际业务逻辑
-        return null;
+    changeSet(author: "xiaoyu.zhao@hand-china.com", id: "2019-05-10-${splitTableName}") {
+        dropIndex(tableName: "${splitTableName}", indexName: "${splitTableName}_n1")
+        addUniqueConstraint(columnNames: "user_id, authority_type_code, tenant_id", tableName: "${splitTableName}", constraintName: "${splitTableName}_u1")
     }
-    /**
-     * 获取事件编码
-     *
-     * @return 事件编码
-     */
-    private String getEventCode(${executeParameter}) {
-        // 事件规则：创建员工
-        return "HPFM.CREATION_EMPLOYEE";
+    changeSet(author: 'jiangzhou.bo@hand-china.com', id: '2020-03-16-${splitTableName}') {
+        addColumn(tableName: '${splitTableName}') {
+            column(name: 'data_source', type: 'varchar(30)', defaultValue: "DEFAULT", remarks: '数据来源') { constraints(nullable: "false") }
+        }
     }
-    /**
-     * 获取事件调用条件对象
-     *
-     * @return 事件调用条件对象
-     */
-    private Map&lt;String, Object&gt; getEventSchedulerCondition(${executeParameter}) {
-        // 条件对象
-        Map&lt;String, Object&gt; condition = new HashMap&lt;&gt;(16);
-        // TODO: 请完善条件对象数据填充
-        // 例： condition.put("age", 100);
-        // 返回条件对象
-        return condition;
+    changeSet(author: "hzero@hand-china.com", id: "2020-05-28-${splitTableName}") {
+        update(tableName: '${splitTableName}') {
+            column(name: 'authority_type_code', value: 'INV_ORGANIZATION')
+            where "authority_type_code='INVORG'"
+        }
+        update(tableName: '${splitTableName}') {
+            column(name: 'authority_type_code', value: 'PURCHASE_ORGANIZATION')
+            where "authority_type_code='PURORG'"
+        }
+        update(tableName: '${splitTableName}') {
+            column(name: 'authority_type_code', value: 'PURCHASE_AGENT')
+            where "authority_type_code='PURAGENT'"
+        }
     }
-    /**
-     * 获取事件参数
-     *
-     * @return 事件参数
-     * @see EventParam
-     * @see ApiParam
-     * @see MethodParam
-     * @see WebHookParam
-     */
-    private EventParam[] getEventParams(${executeParameter}) {
-        // TODO: 请完善事件参数的创建逻辑
-        // 目前共有三种事件参数类型：ApiParam、MethodParam、WebHookParam
-        return new EventParam[0];
+    changeSet(author: "xiaoyu.zhao@hand-china.com", id: "${splitTableName}-2021-01-08") {
+        addColumn(tableName: "${splitTableName}") {
+            column(name: "menu_id", type: "bigint", remarks: "菜单Id，iam_menu.id", defaultValue: "-1") {
+                constraints(nullable: "false")
+            }
+        }
+        dropUniqueConstraint(tableName: "${splitTableName}", constraintName: "${splitTableName}_u1")
+        addUniqueConstraint(tableName: "${splitTableName}", columnNames: "user_id,authority_type_code,tenant_id,menu_id", constraintName: "${splitTableName}_u1")
     }
-    /**
-     * 获取事件调度器
-     *
-     * @return 事件调度器
-     */
-    private EventScheduler getEventScheduler() {
-        // 使用ApplicationContext获取EventScheduler对象
-        return ApplicationContextHelper.getContext().getBean(EventScheduler.class);
+  changeSet(author: "hzero@hand-china.com", id: "${splitTableName}-2021-06-22-version-3") {
+        def weight = 1
+        if (helper.isSqlServer()) {
+            weight = 2
+        } else if (helper.isOracle()) {
+            weight = 3
+        }
+        dropNotNullConstraint (tableName: "hiam_user_authority", columnName: "data_source", columnDataType: "varchar(" + 30* weight + ")") 
+        //mysql在删除非空约束时候会清空默认值
+        if (helper.isMysql()) {
+            addDefaultValue (tableName: "${splitTableName}", columnName: "data_source", columnDataType: "varchar(" + 30* weight + ")", defaultValue: "DEFAULT") 
+        }
     }
 }</t>
   </si>
   <si>
-    <t>hpfm_common_template-14</t>
-  </si>
-  <si>
-    <t>HPFM.EVENT_RULE_TEMPLATE</t>
-  </si>
-  <si>
-    <t>事件规则基础模板</t>
-  </si>
-  <si>
-    <t>package org.hzero.template.event.rule;
-import io.choerodon.core.convertor.ApplicationContextHelper;
-import org.hzero.boot.api.customize.commons.handler.ICustomizeHandler;
-import org.hzero.boot.platform.event.EventScheduler;
-import org.hzero.boot.platform.event.vo.ApiParam;
-import org.hzero.boot.platform.event.vo.EventParam;
-import org.hzero.boot.platform.event.vo.MethodParam;
-import org.hzero.boot.platform.event.vo.WebHookParam;
-import java.util.HashMap;
-import java.util.Map;
-/**
- * 事件规则处理模板
- * &lt;p&gt;
- * 共有四处逻辑需要完善：
- * 1、org.hzero.template.event.rule.EventRuleHandler.executeAdapter(java.lang.Long)
- * 2、org.hzero.template.event.rule.EventRuleHandler.getEventCode()
- * 3、org.hzero.template.event.rule.EventRuleHandler.getEventSchedulerCondition()
- * 4、org.hzero.template.event.rule.EventRuleHandler.getEventParams()
- *
- * @author admin
- */
-public class EventRuleHandler implements ICustomizeHandler {
-    @Override
-    public Object execute(Object... args) {
-        return this.executeAdapter(${callParameter});
+    <t>hpfm_common_template-30</t>
+  </si>
+  <si>
+    <t>HIAM.HIAM_USER_AUTHORITY_LINE.MYSQL</t>
+  </si>
+  <si>
+    <t>HIAM_USER_AUTHORITY_LINE 分表 MySQL 建表脚本</t>
+  </si>
+  <si>
+    <t>CREATE TABLE `${splitTableName}`
+(
+    `authority_line_id`     bigint(20)  NOT NULL AUTO_INCREMENT,
+    `authority_id`          bigint(20)  NOT NULL COMMENT '权限ID，HIAM_USER_AUTHORITY.AUTHORITY_ID',
+    `tenant_id`             bigint(20)  NOT NULL COMMENT '租户ID，HPFM.HPFM_TENANT',
+    `data_id`               bigint(20)  NOT NULL COMMENT '数据ID',
+    `data_code`             varchar(80)          DEFAULT NULL COMMENT '数据代码/编码',
+    `data_name`             varchar(360)         DEFAULT NULL COMMENT '数据名称',
+    `object_version_number` bigint(20)  NOT NULL DEFAULT 1 COMMENT '行版本号，用来处理锁',
+    `creation_date`         datetime    NOT NULL DEFAULT CURRENT_TIMESTAMP,
+    `created_by`            bigint(20)  NOT NULL DEFAULT -1,
+    `last_updated_by`       bigint(20)  NOT NULL DEFAULT -1,
+    `last_update_date`      datetime    NOT NULL DEFAULT CURRENT_TIMESTAMP,
+queried_flag tinyint(1) NOT NULL DEFAULT'1' COMMENT '用于查询的数据标识，默认为1，0-禁用，1-启用',
+updated_flag tinyint(1) NOT NULL DEFAULT'1' COMMENT '用于更新的数据标识，默认为1，0-禁用，1-启用',
+created_flag tinyint(1) NOT NULL DEFAULT'1' COMMENT '用于新建的数据标识，默认为1，0-禁用，1-启用',
+removed_flag tinyint(1) NOT NULL DEFAULT'1' COMMENT '用于删除的数据标识，默认为1，0-禁用，1-启用',
+    PRIMARY KEY (`authority_line_id`),
+    UNIQUE KEY `${splitTableName}_u1` (`authority_id`, `data_id`)
+) ENGINE = InnoDB
+  DEFAULT CHARSET = utf8mb4
+  COLLATE = utf8mb4_bin COMMENT ='用户权限管理行'</t>
+  </si>
+  <si>
+    <t>hpfm_common_template-31</t>
+  </si>
+  <si>
+    <t>HIAM.HIAM_USER_AUTHORITY_LINE.ORACLE</t>
+  </si>
+  <si>
+    <t>HIAM_USER_AUTHORITY_LINE 分表 Oracle 建表脚本</t>
+  </si>
+  <si>
+    <t>CREATE TABLE ${splitTableName.toUpperCase()}
+(
+    AUTHORITY_LINE_ID     NUMBER(38, 0)                           NOT NULL ENABLE,
+    AUTHORITY_ID          NUMBER(38, 0)                           NOT NULL ENABLE,
+    TENANT_ID             NUMBER(38, 0)                           NOT NULL ENABLE,
+    DATA_ID               NUMBER(38, 0)                           NOT NULL ENABLE,
+    DATA_CODE             VARCHAR2(240),
+    DATA_NAME             VARCHAR2(1080),
+    OBJECT_VERSION_NUMBER NUMBER(38, 0) DEFAULT 1                 NOT NULL ENABLE,
+    CREATION_DATE         TIMESTAMP(6)  DEFAULT CURRENT_TIMESTAMP NOT NULL ENABLE,
+    CREATED_BY            NUMBER(38, 0) DEFAULT -1                NOT NULL ENABLE,
+    LAST_UPDATED_BY       NUMBER(38, 0) DEFAULT -1                NOT NULL ENABLE,
+    LAST_UPDATE_DATE      TIMESTAMP(6)  DEFAULT CURRENT_TIMESTAMP NOT NULL ENABLE,
+queried_flag Number DEFAULT '1' NOT NULL,
+updated_flag Number DEFAULT '1' NOT NULL,
+created_flag Number DEFAULT '1' NOT NULL,
+removed_flag Number DEFAULT '1' NOT NULL,
+    CONSTRAINT PK_${splitTableName.toUpperCase()} PRIMARY KEY (AUTHORITY_LINE_ID)
+        USING INDEX PCTFREE 10 INITRANS 2 MAXTRANS 255 COMPUTE STATISTICS NOCOMPRESS LOGGING
+            TABLESPACE "USERS" ENABLE,
+    CONSTRAINT ${splitTableName.toUpperCase()}_U1 UNIQUE (AUTHORITY_ID, DATA_ID)
+        USING INDEX PCTFREE 10 INITRANS 2 MAXTRANS 255 COMPUTE STATISTICS NOCOMPRESS LOGGING
+            TABLESPACE "USERS" ENABLE
+) SEGMENT CREATION DEFERRED
+    PCTFREE 10 PCTUSED 40 INITRANS 1 MAXTRANS 255 NOCOMPRESS LOGGING
+    TABLESPACE "USERS"</t>
+  </si>
+  <si>
+    <t>hpfm_common_template-32</t>
+  </si>
+  <si>
+    <t>HIAM.HIAM_USER_AUTHORITY_LINE.SQLSERVER</t>
+  </si>
+  <si>
+    <t>HIAM_USER_AUTHORITY_LINE 分表 SqlServer 建表脚本</t>
+  </si>
+  <si>
+    <t>CREATE TABLE [dbo].[${splitTableName}]
+(
+    [authority_line_id]     bigint IDENTITY (1,1)                                     NOT NULL,
+    [authority_id]          bigint                                                    NOT NULL,
+    [tenant_id]             bigint                                                    NOT NULL,
+    [data_id]               bigint                                                    NOT NULL,
+    [data_code]             varchar(160) COLLATE Chinese_PRC_CI_AS                    NULL,
+    [data_name]             varchar(720) COLLATE Chinese_PRC_CI_AS                    NULL,
+    [object_version_number] bigint                                DEFAULT ((1))       NOT NULL,
+    [creation_date]         datetime                              DEFAULT (getdate()) NOT NULL,
+    [created_by]            bigint                                DEFAULT ((-1))      NOT NULL,
+    [last_updated_by]       bigint                                DEFAULT ((-1))      NOT NULL,
+    [last_update_date]      datetime                              DEFAULT (getdate()) NOT NULL,
+[queried_flag] Tinyint NOT NULL,
+[updated_flag] Tinyint NOT NULL,
+[created_flag] Tinyint NOT NULL,
+[removed_flag] Tinyint NOT NULL,
+    CONSTRAINT [PK_${splitTableName}] PRIMARY KEY CLUSTERED ([authority_line_id])
+        WITH (PAD_INDEX = OFF, STATISTICS_NORECOMPUTE = OFF, IGNORE_DUP_KEY = OFF, ALLOW_ROW_LOCKS = ON, ALLOW_PAGE_LOCKS = ON)
+        ON [PRIMARY],
+    CONSTRAINT [${splitTableName}_u1] UNIQUE NONCLUSTERED ([authority_id] ASC, [data_id] ASC)
+        WITH (PAD_INDEX = OFF, STATISTICS_NORECOMPUTE = OFF, IGNORE_DUP_KEY = OFF, ALLOW_ROW_LOCKS = ON, ALLOW_PAGE_LOCKS = ON)
+        ON [PRIMARY]
+)
+    ON [PRIMARY]
+GO
+ALTER TABLE [dbo].[${splitTableName}]
+    SET (LOCK_ESCALATION = TABLE)
+GO
+ALTER TABLE  [dbo].[${splitTableName}] ADD CONSTRAINT DF_${splitTableName}_queried_flag DEFAULT '1' for queried_flag
+ALTER TABLE  [dbo].[${splitTableName}] ADD CONSTRAINT DF_${splitTableName}_updated_flag DEFAULT '1' for updated_flag
+ALTER TABLE  [dbo].[${splitTableName}] ADD CONSTRAINT DF_${splitTableName}_created_flag DEFAULT '1' for created_flag
+ALTER TABLE  [dbo].[${splitTableName}] ADD CONSTRAINT DF_${splitTableName}_removed_flag DEFAULT '1' for removed_flag
+EXEC sp_addextendedproperty
+     'MS_Description', N'表ID，主键，供其他表做外键',
+     'SCHEMA', N'dbo',
+     'TABLE', N'${splitTableName}',
+     'COLUMN', N'authority_line_id'
+GO
+EXEC sp_addextendedproperty
+     'MS_Description', N'权限ID，HIAM_USER_AUTHORITY.AUTHORITY_ID',
+     'SCHEMA', N'dbo',
+     'TABLE', N'${splitTableName}',
+     'COLUMN', N'authority_id'
+GO
+EXEC sp_addextendedproperty
+     'MS_Description', N'租户ID，HPFM.HPFM_TENANT',
+     'SCHEMA', N'dbo',
+     'TABLE', N'${splitTableName}',
+     'COLUMN', N'tenant_id'
+GO
+EXEC sp_addextendedproperty
+     'MS_Description', N'数据ID',
+     'SCHEMA', N'dbo',
+     'TABLE', N'${splitTableName}',
+     'COLUMN', N'data_id'
+GO
+EXEC sp_addextendedproperty
+     'MS_Description', N'数据代码/编码',
+     'SCHEMA', N'dbo',
+     'TABLE', N'${splitTableName}',
+     'COLUMN', N'data_code'
+GO
+EXEC sp_addextendedproperty
+     'MS_Description', N'数据名称',
+     'SCHEMA', N'dbo',
+     'TABLE', N'${splitTableName}',
+     'COLUMN', N'data_name'
+GO
+EXEC sp_addextendedproperty
+     'MS_Description', N'行版本号，用来处理锁',
+     'SCHEMA', N'dbo',
+     'TABLE', N'${splitTableName}',
+     'COLUMN', N'object_version_number'
+GO
+EXEC sp_addextendedproperty
+     'MS_Description', N'用户权限管理行',
+     'SCHEMA', N'dbo',
+     'TABLE', N'${splitTableName}'
+EXECUTE sp_addextendedproperty N'MS_Description', '用于查询的数据标识，默认为1，0-禁用，1-启用', N'user', N'dbo', N'table', N'${splitTableName}', N'column', N'queried_flag'
+EXECUTE sp_addextendedproperty N'MS_Description', '用于更新的数据标识，默认为1，0-禁用，1-启用', N'user', N'dbo', N'table', N'${splitTableName}', N'column', N'updated_flag'
+EXECUTE sp_addextendedproperty N'MS_Description', '用于新建的数据标识，默认为1，0-禁用，1-启用', N'user', N'dbo', N'table', N'${splitTableName}', N'column', N'created_flag'
+EXECUTE sp_addextendedproperty N'MS_Description', '用于删除的数据标识，默认为1，0-禁用，1-启用', N'user', N'dbo', N'table', N'${splitTableName}', N'column', N'removed_flag'</t>
+  </si>
+  <si>
+    <t>hpfm_common_template-33</t>
+  </si>
+  <si>
+    <t>HIAM.HIAM_USER_AUTHORITY_LINE.POSTGRESQL</t>
+  </si>
+  <si>
+    <t>HIAM_USER_AUTHORITY_LINE 分表 PostgreSQL 建表脚本</t>
+  </si>
+  <si>
+    <t>create table ${splitTableName}
+(
+    authority_line_id     bigserial                                        not null
+        constraint pk_${splitTableName}
+            primary key,
+    authority_id          bigint                                           not null,
+    tenant_id             bigint                                           not null,
+    data_id               bigint                                           not null,
+    data_code             varchar(80),
+    data_name             varchar(360),
+    object_version_number bigint      default 1                            not null,
+    creation_date         timestamp   default now()                        not null,
+    created_by            bigint      default '-1'::integer                not null,
+    last_updated_by       bigint      default '-1'::integer                not null,
+    last_update_date      timestamp   default now()                        not null,
+    queried_flag tinyint NOT NULL DEFAULT '1' COMMENT '用于查询的数据标识，默认为1，0-禁用，1-启用',
+    updated_flag tinyint NOT NULL DEFAULT '1' COMMENT '用于更新的数据标识，默认为1，0-禁用，1-启用',
+    created_flag tinyint NOT NULL DEFAULT '1' COMMENT '用于新建的数据标识，默认为1，0-禁用，1-启用',
+    removed_flag tinyint NOT NULL DEFAULT '1' COMMENT '用于删除的数据标识，默认为1，0-禁用，1-启用',
+    constraint ${splitTableName}_u1
+        unique (authority_id, data_id)
+);
+comment on table ${splitTableName} is '用户权限管理行';
+comment on column ${splitTableName}.authority_line_id is '表ID，主键，供其他表做外键';
+comment on column ${splitTableName}.authority_id is '权限ID，HIAM_USER_AUTHORITY.AUTHORITY_ID';
+comment on column ${splitTableName}.tenant_id is '租户ID，HPFM.HPFM_TENANT';
+comment on column ${splitTableName}.data_id is '数据ID';
+comment on column ${splitTableName}.data_code is '数据代码/编码';
+comment on column ${splitTableName}.data_name is '数据名称';
+comment on column ${splitTableName}.object_version_number is '行版本号，用来处理锁';</t>
+  </si>
+  <si>
+    <t>hpfm_common_template-34</t>
+  </si>
+  <si>
+    <t>HIAM.HIAM_USER_AUTHORITY_LINE.DEFAULT</t>
+  </si>
+  <si>
+    <t>HIAM_USER_AUTHORITY_LINE 分表默认建表脚本</t>
+  </si>
+  <si>
+    <t>package script.db
+databaseChangeLog(logicalFilePath: 'script/db/${splitTableName}.groovy') {
+    changeSet(author: "hzero@hand-china.com", id: "2019-03-01-${splitTableName}") {
+        def weight = 1
+        if (helper.isSqlServer()) {
+            weight = 2
+        } else if (helper.isOracle()) {
+            weight = 3
+        }
+        if (helper.dbType().isSupportSequence()) {
+            createSequence(sequenceName: '${splitTableName}_s', startValue: "1")
+        }
+        createTable(tableName: "${splitTableName}", remarks: "用户权限管理行") {
+            column(name: "authority_line_id", type: "bigint", autoIncrement: true, remarks: "表ID，主键，供其他表做外键") { constraints(primaryKey: true) }
+            column(name: "authority_id", type: "bigint", remarks: "权限ID，HIAM_USER_AUTHORITY.AUTHORITY_ID") { constraints(nullable: "false") }
+            column(name: "tenant_id", type: "bigint", remarks: "租户ID，HPFM.HPFM_TENANT") { constraints(nullable: "false") }
+            column(name: "data_id", type: "bigint", remarks: "数据ID") { constraints(nullable: "false") }
+            column(name: "data_code", type: "varchar(" + 80 * weight + ")", remarks: "数据代码/编码")
+            column(name: "data_name", type: "varchar(" + 360 * weight + ")", remarks: "数据名称")
+            column(name: "object_version_number", type: "bigint", defaultValue: "1", remarks: "行版本号，用来处理锁") { constraints(nullable: "false") }
+            column(name: "creation_date", type: "datetime", defaultValueComputed: "CURRENT_TIMESTAMP", remarks: "") { constraints(nullable: "false") }
+            column(name: "created_by", type: "bigint", defaultValue: "-1", remarks: "") { constraints(nullable: "false") }
+            column(name: "last_updated_by", type: "bigint", defaultValue: "-1", remarks: "") { constraints(nullable: "false") }
+            column(name: "last_update_date", type: "datetime", defaultValueComputed: "CURRENT_TIMESTAMP", remarks: "") { constraints(nullable: "false") }
+        }
+        addUniqueConstraint(columnNames: "authority_id,data_id", tableName: "${splitTableName}", constraintName: "${splitTableName}_u1")
     }
-    /**
-     * 实际执行的逻辑，该方法主要用于适配参数
-     */
-    private Object executeAdapter(${executeParameter}) {
-        // 获取事件调度器
-        EventScheduler eventScheduler = this.getEventScheduler();
-        // 获取事件编码
-        String eventCode = this.getEventCode(${executeArgList});
-        // 获取事件调度条件对象
-        Map&lt;String, Object&gt; condition = this.getEventSchedulerCondition(${executeArgList});
-        // 获取事件参数
-        EventParam[] eventParams = this.getEventParams(${executeArgList});
-        // 事件调度，如果有返回值，则返回事件调度结果；如果没有返回值，就返回null
-        Object scheduleResult = eventScheduler.scheduler(eventCode, condition, eventParams);
-        // TODO: 请完善实际业务逻辑
-        return null;
+    changeSet(author: 'jiangzhou.bo@hand-china.com', id: '2020-03-16-${splitTableName}') {
+        addColumn(tableName: '${splitTableName}') {
+            column(name: 'data_source', type: 'varchar(30)', defaultValue: "DEFAULT", remarks: '数据来源') { constraints(nullable: "false") }
+        }
     }
-    /**
-     * 获取事件编码
-     *
-     * @return 事件编码
-     */
-    private String getEventCode(${executeParameter}) {
-        // TODO: 请完善使用的事件编码
-        return null;
+ changeSet(author: "hzero@hand-china.com", id: "${splitTableName}-2021-05-18-version-2") {
+        addColumn (tableName: "${splitTableName}") {
+            column (name: "queried_flag", type: "tinyint", remarks: "用于查询的数据标识，默认为1，0-禁用，1-启用", afterColumn: "created_by", defaultValue: "1") {
+                constraints (nullable: "false") 
+            }
+        }
+        addColumn (tableName: "${splitTableName}") {
+            column (name: "updated_flag", type: "tinyint", remarks: "用于更新的数据标识，默认为1，0-禁用，1-启用", afterColumn: "queried_flag", defaultValue: "1") {
+                constraints (nullable: "false") 
+            }
+        }
+        addColumn (tableName: "${splitTableName}") {
+            column (name: "created_flag", type: "tinyint", remarks: "用于新建的数据标识，默认为1，0-禁用，1-启用", afterColumn: "updated_flag", defaultValue: "1") {
+                constraints (nullable: "false") 
+            }
+        }
+        addColumn (tableName: "${splitTableName}") {
+            column (name: "removed_flag", type: "tinyint", remarks: "用于删除的数据标识，默认为1，0-禁用，1-启用", afterColumn: "created_flag", defaultValue: "1") {
+                constraints (nullable: "false") 
+            }
+        }
     }
-    /**
-     * 获取事件调用条件对象
-     *
-     * @return 事件调用条件对象
-     */
-    private Map&lt;String, Object&gt; getEventSchedulerCondition(${executeParameter}) {
-        // 条件对象
-        Map&lt;String, Object&gt; condition = new HashMap&lt;&gt;(16);
-        // TODO: 请完善条件对象数据填充
-        // 例： condition.put("age", 100);
-        // 返回条件对象
-        return condition;
-    }
-    /**
-     * 获取事件参数
-     *
-     * @return 事件参数
-     * @see EventParam
-     * @see ApiParam
-     * @see MethodParam
-     * @see WebHookParam
-     */
-    private EventParam[] getEventParams(${executeParameter}) {
-        // TODO: 请完善事件参数的创建逻辑
-        // 目前共有三种事件参数类型：ApiParam、MethodParam、WebHookParam
-        return new EventParam[0];
-    }
-    /**
-     * 获取事件调度器
-     *
-     * @return 事件调度器
-     */
-    private EventScheduler getEventScheduler() {
-        // 使用ApplicationContext获取EventScheduler对象
-        return ApplicationContextHelper.getContext().getBean(EventScheduler.class);
+changeSet(author: "hzero@hand-china.com", id: "${splitTableName}-2021-06-22-version-3") {
+        def weight = 1
+        if (helper.isSqlServer()) {
+            weight = 2
+        } else if (helper.isOracle()) {
+            weight = 3
+        }
+        dropNotNullConstraint (tableName: "${splitTableName}", columnName: "data_source", columnDataType: "varchar(" + 30* weight + ")") 
+        //mysql在删除非空约束时候会清空默认值
+        if (helper.isMysql()) {
+            addDefaultValue (tableName: "${splitTableName}", columnName: "data_source", columnDataType: "varchar(" + 30* weight + ")", defaultValue: "DEFAULT") 
+        }
     }
 }</t>
   </si>
@@ -3497,7 +4601,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3796,6 +4900,646 @@
         <v>73</v>
       </c>
     </row>
+    <row r="15">
+      <c r="E15" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" t="s">
+        <v>101</v>
+      </c>
+      <c r="I15" t="s">
+        <v>102</v>
+      </c>
+      <c r="J15" t="s">
+        <v>69</v>
+      </c>
+      <c r="K15" t="s">
+        <v>70</v>
+      </c>
+      <c r="L15" t="s">
+        <v>71</v>
+      </c>
+      <c r="M15" t="s">
+        <v>72</v>
+      </c>
+      <c r="N15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="E16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" t="s">
+        <v>105</v>
+      </c>
+      <c r="H16" t="s">
+        <v>101</v>
+      </c>
+      <c r="I16" t="s">
+        <v>106</v>
+      </c>
+      <c r="J16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K16" t="s">
+        <v>70</v>
+      </c>
+      <c r="L16" t="s">
+        <v>71</v>
+      </c>
+      <c r="M16" t="s">
+        <v>72</v>
+      </c>
+      <c r="N16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="E17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" t="s">
+        <v>110</v>
+      </c>
+      <c r="H17" t="s">
+        <v>101</v>
+      </c>
+      <c r="I17" t="s">
+        <v>111</v>
+      </c>
+      <c r="J17" t="s">
+        <v>69</v>
+      </c>
+      <c r="K17" t="s">
+        <v>70</v>
+      </c>
+      <c r="L17" t="s">
+        <v>71</v>
+      </c>
+      <c r="M17" t="s">
+        <v>72</v>
+      </c>
+      <c r="N17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="E18" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" t="s">
+        <v>101</v>
+      </c>
+      <c r="I18" t="s">
+        <v>115</v>
+      </c>
+      <c r="J18" t="s">
+        <v>69</v>
+      </c>
+      <c r="K18" t="s">
+        <v>70</v>
+      </c>
+      <c r="L18" t="s">
+        <v>71</v>
+      </c>
+      <c r="M18" t="s">
+        <v>72</v>
+      </c>
+      <c r="N18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="E19" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19" t="s">
+        <v>117</v>
+      </c>
+      <c r="G19" t="s">
+        <v>118</v>
+      </c>
+      <c r="H19" t="s">
+        <v>101</v>
+      </c>
+      <c r="I19" t="s">
+        <v>119</v>
+      </c>
+      <c r="J19" t="s">
+        <v>69</v>
+      </c>
+      <c r="K19" t="s">
+        <v>70</v>
+      </c>
+      <c r="L19" t="s">
+        <v>71</v>
+      </c>
+      <c r="M19" t="s">
+        <v>72</v>
+      </c>
+      <c r="N19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="E20" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" t="s">
+        <v>121</v>
+      </c>
+      <c r="G20" t="s">
+        <v>122</v>
+      </c>
+      <c r="H20" t="s">
+        <v>101</v>
+      </c>
+      <c r="I20" t="s">
+        <v>123</v>
+      </c>
+      <c r="J20" t="s">
+        <v>69</v>
+      </c>
+      <c r="K20" t="s">
+        <v>70</v>
+      </c>
+      <c r="L20" t="s">
+        <v>71</v>
+      </c>
+      <c r="M20" t="s">
+        <v>72</v>
+      </c>
+      <c r="N20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="E21" t="s">
+        <v>124</v>
+      </c>
+      <c r="F21" t="s">
+        <v>125</v>
+      </c>
+      <c r="G21" t="s">
+        <v>126</v>
+      </c>
+      <c r="H21" t="s">
+        <v>101</v>
+      </c>
+      <c r="I21" t="s">
+        <v>127</v>
+      </c>
+      <c r="J21" t="s">
+        <v>69</v>
+      </c>
+      <c r="K21" t="s">
+        <v>70</v>
+      </c>
+      <c r="L21" t="s">
+        <v>71</v>
+      </c>
+      <c r="M21" t="s">
+        <v>72</v>
+      </c>
+      <c r="N21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="E22" t="s">
+        <v>128</v>
+      </c>
+      <c r="F22" t="s">
+        <v>129</v>
+      </c>
+      <c r="G22" t="s">
+        <v>130</v>
+      </c>
+      <c r="H22" t="s">
+        <v>101</v>
+      </c>
+      <c r="I22" t="s">
+        <v>131</v>
+      </c>
+      <c r="J22" t="s">
+        <v>69</v>
+      </c>
+      <c r="K22" t="s">
+        <v>70</v>
+      </c>
+      <c r="L22" t="s">
+        <v>71</v>
+      </c>
+      <c r="M22" t="s">
+        <v>72</v>
+      </c>
+      <c r="N22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="E23" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" t="s">
+        <v>133</v>
+      </c>
+      <c r="G23" t="s">
+        <v>134</v>
+      </c>
+      <c r="H23" t="s">
+        <v>101</v>
+      </c>
+      <c r="I23" t="s">
+        <v>135</v>
+      </c>
+      <c r="J23" t="s">
+        <v>69</v>
+      </c>
+      <c r="K23" t="s">
+        <v>70</v>
+      </c>
+      <c r="L23" t="s">
+        <v>71</v>
+      </c>
+      <c r="M23" t="s">
+        <v>72</v>
+      </c>
+      <c r="N23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="E24" t="s">
+        <v>136</v>
+      </c>
+      <c r="F24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G24" t="s">
+        <v>138</v>
+      </c>
+      <c r="H24" t="s">
+        <v>101</v>
+      </c>
+      <c r="I24" t="s">
+        <v>139</v>
+      </c>
+      <c r="J24" t="s">
+        <v>69</v>
+      </c>
+      <c r="K24" t="s">
+        <v>70</v>
+      </c>
+      <c r="L24" t="s">
+        <v>71</v>
+      </c>
+      <c r="M24" t="s">
+        <v>72</v>
+      </c>
+      <c r="N24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="E25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F25" t="s">
+        <v>141</v>
+      </c>
+      <c r="G25" t="s">
+        <v>142</v>
+      </c>
+      <c r="H25" t="s">
+        <v>101</v>
+      </c>
+      <c r="I25" t="s">
+        <v>143</v>
+      </c>
+      <c r="J25" t="s">
+        <v>69</v>
+      </c>
+      <c r="K25" t="s">
+        <v>70</v>
+      </c>
+      <c r="L25" t="s">
+        <v>71</v>
+      </c>
+      <c r="M25" t="s">
+        <v>72</v>
+      </c>
+      <c r="N25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="E26" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" t="s">
+        <v>145</v>
+      </c>
+      <c r="G26" t="s">
+        <v>146</v>
+      </c>
+      <c r="H26" t="s">
+        <v>101</v>
+      </c>
+      <c r="I26" t="s">
+        <v>147</v>
+      </c>
+      <c r="J26" t="s">
+        <v>69</v>
+      </c>
+      <c r="K26" t="s">
+        <v>70</v>
+      </c>
+      <c r="L26" t="s">
+        <v>71</v>
+      </c>
+      <c r="M26" t="s">
+        <v>72</v>
+      </c>
+      <c r="N26" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="E27" t="s">
+        <v>148</v>
+      </c>
+      <c r="F27" t="s">
+        <v>149</v>
+      </c>
+      <c r="G27" t="s">
+        <v>150</v>
+      </c>
+      <c r="H27" t="s">
+        <v>101</v>
+      </c>
+      <c r="I27" t="s">
+        <v>151</v>
+      </c>
+      <c r="J27" t="s">
+        <v>69</v>
+      </c>
+      <c r="K27" t="s">
+        <v>70</v>
+      </c>
+      <c r="L27" t="s">
+        <v>71</v>
+      </c>
+      <c r="M27" t="s">
+        <v>72</v>
+      </c>
+      <c r="N27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="E28" t="s">
+        <v>152</v>
+      </c>
+      <c r="F28" t="s">
+        <v>153</v>
+      </c>
+      <c r="G28" t="s">
+        <v>154</v>
+      </c>
+      <c r="H28" t="s">
+        <v>101</v>
+      </c>
+      <c r="I28" t="s">
+        <v>155</v>
+      </c>
+      <c r="J28" t="s">
+        <v>69</v>
+      </c>
+      <c r="K28" t="s">
+        <v>70</v>
+      </c>
+      <c r="L28" t="s">
+        <v>71</v>
+      </c>
+      <c r="M28" t="s">
+        <v>72</v>
+      </c>
+      <c r="N28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="E29" t="s">
+        <v>156</v>
+      </c>
+      <c r="F29" t="s">
+        <v>157</v>
+      </c>
+      <c r="G29" t="s">
+        <v>158</v>
+      </c>
+      <c r="H29" t="s">
+        <v>101</v>
+      </c>
+      <c r="I29" t="s">
+        <v>159</v>
+      </c>
+      <c r="J29" t="s">
+        <v>69</v>
+      </c>
+      <c r="K29" t="s">
+        <v>70</v>
+      </c>
+      <c r="L29" t="s">
+        <v>71</v>
+      </c>
+      <c r="M29" t="s">
+        <v>72</v>
+      </c>
+      <c r="N29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="E30" t="s">
+        <v>160</v>
+      </c>
+      <c r="F30" t="s">
+        <v>161</v>
+      </c>
+      <c r="G30" t="s">
+        <v>162</v>
+      </c>
+      <c r="H30" t="s">
+        <v>101</v>
+      </c>
+      <c r="I30" t="s">
+        <v>163</v>
+      </c>
+      <c r="J30" t="s">
+        <v>69</v>
+      </c>
+      <c r="K30" t="s">
+        <v>70</v>
+      </c>
+      <c r="L30" t="s">
+        <v>71</v>
+      </c>
+      <c r="M30" t="s">
+        <v>72</v>
+      </c>
+      <c r="N30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="E31" t="s">
+        <v>164</v>
+      </c>
+      <c r="F31" t="s">
+        <v>165</v>
+      </c>
+      <c r="G31" t="s">
+        <v>166</v>
+      </c>
+      <c r="H31" t="s">
+        <v>101</v>
+      </c>
+      <c r="I31" t="s">
+        <v>167</v>
+      </c>
+      <c r="J31" t="s">
+        <v>69</v>
+      </c>
+      <c r="K31" t="s">
+        <v>70</v>
+      </c>
+      <c r="L31" t="s">
+        <v>71</v>
+      </c>
+      <c r="M31" t="s">
+        <v>72</v>
+      </c>
+      <c r="N31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="E32" t="s">
+        <v>168</v>
+      </c>
+      <c r="F32" t="s">
+        <v>169</v>
+      </c>
+      <c r="G32" t="s">
+        <v>170</v>
+      </c>
+      <c r="H32" t="s">
+        <v>101</v>
+      </c>
+      <c r="I32" t="s">
+        <v>171</v>
+      </c>
+      <c r="J32" t="s">
+        <v>69</v>
+      </c>
+      <c r="K32" t="s">
+        <v>70</v>
+      </c>
+      <c r="L32" t="s">
+        <v>71</v>
+      </c>
+      <c r="M32" t="s">
+        <v>72</v>
+      </c>
+      <c r="N32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="E33" t="s">
+        <v>172</v>
+      </c>
+      <c r="F33" t="s">
+        <v>173</v>
+      </c>
+      <c r="G33" t="s">
+        <v>174</v>
+      </c>
+      <c r="H33" t="s">
+        <v>101</v>
+      </c>
+      <c r="I33" t="s">
+        <v>175</v>
+      </c>
+      <c r="J33" t="s">
+        <v>69</v>
+      </c>
+      <c r="K33" t="s">
+        <v>70</v>
+      </c>
+      <c r="L33" t="s">
+        <v>71</v>
+      </c>
+      <c r="M33" t="s">
+        <v>72</v>
+      </c>
+      <c r="N33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="E34" t="s">
+        <v>176</v>
+      </c>
+      <c r="F34" t="s">
+        <v>177</v>
+      </c>
+      <c r="G34" t="s">
+        <v>178</v>
+      </c>
+      <c r="H34" t="s">
+        <v>101</v>
+      </c>
+      <c r="I34" t="s">
+        <v>179</v>
+      </c>
+      <c r="J34" t="s">
+        <v>69</v>
+      </c>
+      <c r="K34" t="s">
+        <v>70</v>
+      </c>
+      <c r="L34" t="s">
+        <v>71</v>
+      </c>
+      <c r="M34" t="s">
+        <v>72</v>
+      </c>
+      <c r="N34" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
